--- a/Jogos_da_Semana_FlashScore_2025-05-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-03.xlsx
@@ -918,7 +918,7 @@
         <v>2.1</v>
       </c>
       <c r="P4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q4" t="n">
         <v>3.25</v>
@@ -1034,13 +1034,13 @@
         <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="O5" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="P5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q5" t="n">
         <v>3</v>
@@ -1162,7 +1162,7 @@
         <v>2.75</v>
       </c>
       <c r="P6" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="Q6" t="n">
         <v>4</v>
@@ -1284,7 +1284,7 @@
         <v>1.92</v>
       </c>
       <c r="P7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q7" t="n">
         <v>3</v>
@@ -1406,7 +1406,7 @@
         <v>3.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="Q8" t="n">
         <v>4.5</v>
@@ -1528,7 +1528,7 @@
         <v>2.75</v>
       </c>
       <c r="P9" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="Q9" t="n">
         <v>4</v>
@@ -1650,7 +1650,7 @@
         <v>3.2</v>
       </c>
       <c r="P10" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="Q10" t="n">
         <v>4.5</v>
@@ -1772,7 +1772,7 @@
         <v>2.06</v>
       </c>
       <c r="P11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q11" t="n">
         <v>3.25</v>
@@ -1894,7 +1894,7 @@
         <v>2.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q12" t="n">
         <v>3</v>
@@ -3341,7 +3341,7 @@
         <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
         <v>1.33</v>
@@ -3463,7 +3463,7 @@
         <v>1.01</v>
       </c>
       <c r="K25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L25" t="n">
         <v>1.06</v>
@@ -3478,7 +3478,7 @@
         <v>4.33</v>
       </c>
       <c r="P25" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="Q25" t="n">
         <v>5.5</v>
@@ -3490,10 +3490,10 @@
         <v>2</v>
       </c>
       <c r="T25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="U25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="V25" t="n">
         <v>41</v>
@@ -3505,7 +3505,7 @@
         <v>81</v>
       </c>
       <c r="Y25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="Z25" t="n">
         <v>34</v>
@@ -3538,7 +3538,7 @@
         <v>10</v>
       </c>
       <c r="AJ25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -3600,7 +3600,7 @@
         <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Q26" t="n">
         <v>2.1</v>
@@ -3695,13 +3695,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H27" t="n">
         <v>2.63</v>
       </c>
       <c r="I27" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J27" t="n">
         <v>1.17</v>
@@ -3722,28 +3722,28 @@
         <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Q27" t="n">
         <v>2.1</v>
       </c>
       <c r="R27" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S27" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V27" t="n">
         <v>15</v>
       </c>
       <c r="W27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X27" t="n">
         <v>41</v>
@@ -3770,13 +3770,13 @@
         <v>5.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG27" t="n">
         <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI27" t="n">
         <v>29</v>
@@ -3826,10 +3826,10 @@
         <v>3.6</v>
       </c>
       <c r="J28" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L28" t="n">
         <v>1.5</v>
@@ -3844,10 +3844,10 @@
         <v>1.5</v>
       </c>
       <c r="P28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R28" t="n">
         <v>2.05</v>
@@ -3966,7 +3966,7 @@
         <v>1.44</v>
       </c>
       <c r="P29" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q29" t="n">
         <v>2.25</v>
@@ -3981,7 +3981,7 @@
         <v>6</v>
       </c>
       <c r="U29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V29" t="n">
         <v>10</v>
@@ -4061,19 +4061,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J30" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L30" t="n">
         <v>1.5</v>
@@ -4088,10 +4088,10 @@
         <v>1.5</v>
       </c>
       <c r="P30" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R30" t="n">
         <v>2.25</v>
@@ -4103,7 +4103,7 @@
         <v>5.5</v>
       </c>
       <c r="U30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V30" t="n">
         <v>9.5</v>
@@ -4124,7 +4124,7 @@
         <v>7</v>
       </c>
       <c r="AB30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="n">
         <v>81</v>
@@ -4133,10 +4133,10 @@
         <v>101</v>
       </c>
       <c r="AE30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG30" t="n">
         <v>15</v>
@@ -4183,19 +4183,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J31" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L31" t="n">
         <v>1.53</v>
@@ -4204,13 +4204,13 @@
         <v>2.38</v>
       </c>
       <c r="N31" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O31" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P31" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q31" t="n">
         <v>2.25</v>
@@ -4225,7 +4225,7 @@
         <v>4.75</v>
       </c>
       <c r="U31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V31" t="n">
         <v>9.5</v>
@@ -4258,10 +4258,10 @@
         <v>10</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH31" t="n">
         <v>67</v>
@@ -4436,10 +4436,10 @@
         <v>2.4</v>
       </c>
       <c r="J33" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K33" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L33" t="n">
         <v>1.62</v>
@@ -4549,13 +4549,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J34" t="n">
         <v>1.13</v>
@@ -4591,7 +4591,7 @@
         <v>5.5</v>
       </c>
       <c r="U34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V34" t="n">
         <v>10</v>
@@ -4612,7 +4612,7 @@
         <v>6</v>
       </c>
       <c r="AB34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC34" t="n">
         <v>81</v>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
         <v>4</v>
@@ -5052,10 +5052,10 @@
         <v>17</v>
       </c>
       <c r="L38" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M38" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N38" t="n">
         <v>1.5</v>
@@ -5070,7 +5070,7 @@
         <v>3.75</v>
       </c>
       <c r="R38" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S38" t="n">
         <v>2.5</v>
@@ -5171,7 +5171,7 @@
         <v>1.03</v>
       </c>
       <c r="K39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L39" t="n">
         <v>1.17</v>
@@ -5403,13 +5403,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H41" t="n">
         <v>3.7</v>
       </c>
       <c r="I41" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J41" t="n">
         <v>1.05</v>
@@ -5445,10 +5445,10 @@
         <v>12</v>
       </c>
       <c r="U41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W41" t="n">
         <v>41</v>
@@ -5472,13 +5472,13 @@
         <v>51</v>
       </c>
       <c r="AD41" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE41" t="n">
         <v>7.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG41" t="n">
         <v>8.5</v>
@@ -5525,10 +5525,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="H42" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="I42" t="n">
         <v>1.57</v>
@@ -5549,7 +5549,7 @@
         <v>1.47</v>
       </c>
       <c r="O42" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="P42" t="n">
         <v>1.27</v>
@@ -5591,7 +5591,7 @@
         <v>13</v>
       </c>
       <c r="AC42" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD42" t="n">
         <v>250</v>
@@ -6150,13 +6150,13 @@
         <v>3.8</v>
       </c>
       <c r="J50" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K50" t="n">
         <v>11</v>
       </c>
       <c r="L50" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M50" t="n">
         <v>3.75</v>
@@ -6272,19 +6272,19 @@
         <v>3.7</v>
       </c>
       <c r="J51" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K51" t="n">
         <v>15</v>
       </c>
       <c r="L51" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M51" t="n">
         <v>4.33</v>
       </c>
       <c r="N51" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O51" t="n">
         <v>2.15</v>
@@ -6394,22 +6394,22 @@
         <v>2.55</v>
       </c>
       <c r="J52" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K52" t="n">
         <v>13</v>
       </c>
       <c r="L52" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="O52" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P52" t="n">
         <v>1.33</v>
@@ -6507,13 +6507,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H53" t="n">
         <v>5.5</v>
       </c>
       <c r="I53" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="J53" t="n">
         <v>1.01</v>
@@ -6534,7 +6534,7 @@
         <v>3.4</v>
       </c>
       <c r="P53" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="Q53" t="n">
         <v>4.5</v>
@@ -6579,13 +6579,13 @@
         <v>151</v>
       </c>
       <c r="AE53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF53" t="n">
         <v>51</v>
       </c>
       <c r="AG53" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH53" t="n">
         <v>101</v>
@@ -6594,7 +6594,7 @@
         <v>51</v>
       </c>
       <c r="AJ53" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54">
@@ -6656,7 +6656,7 @@
         <v>3.4</v>
       </c>
       <c r="P54" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="Q54" t="n">
         <v>4.5</v>
@@ -6778,7 +6778,7 @@
         <v>1.83</v>
       </c>
       <c r="P55" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q55" t="n">
         <v>2.75</v>
@@ -7023,7 +7023,7 @@
         <v>1.78</v>
       </c>
       <c r="S57" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T57" t="n">
         <v>12</v>
@@ -7044,13 +7044,13 @@
         <v>55</v>
       </c>
       <c r="Z57" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA57" t="n">
         <v>6.7</v>
       </c>
       <c r="AB57" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC57" t="n">
         <v>75</v>
@@ -7059,7 +7059,7 @@
         <v>600</v>
       </c>
       <c r="AE57" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AF57" t="n">
         <v>8</v>
@@ -7229,13 +7229,13 @@
         <v>3.2</v>
       </c>
       <c r="I59" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J59" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K59" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L59" t="n">
         <v>1.44</v>
@@ -7259,7 +7259,7 @@
         <v>2.05</v>
       </c>
       <c r="S59" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T59" t="n">
         <v>6</v>
@@ -7274,25 +7274,25 @@
         <v>15</v>
       </c>
       <c r="X59" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y59" t="n">
         <v>34</v>
       </c>
       <c r="Z59" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA59" t="n">
         <v>6</v>
       </c>
       <c r="AB59" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC59" t="n">
         <v>67</v>
       </c>
       <c r="AD59" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE59" t="n">
         <v>10</v>
@@ -7345,7 +7345,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>3.1</v>
@@ -7381,7 +7381,7 @@
         <v>2</v>
       </c>
       <c r="S60" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T60" t="n">
         <v>6.5</v>
@@ -7467,7 +7467,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="H61" t="n">
         <v>3.75</v>
@@ -7503,7 +7503,7 @@
         <v>2.2</v>
       </c>
       <c r="S61" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T61" t="n">
         <v>5.5</v>
@@ -7589,7 +7589,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H62" t="n">
         <v>3.4</v>
@@ -7601,19 +7601,19 @@
         <v>1.07</v>
       </c>
       <c r="K62" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L62" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M62" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N62" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O62" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P62" t="n">
         <v>1.44</v>
@@ -7622,10 +7622,10 @@
         <v>2.63</v>
       </c>
       <c r="R62" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S62" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -7711,10 +7711,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H63" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I63" t="n">
         <v>3.35</v>
@@ -7744,25 +7744,25 @@
         <v>2.22</v>
       </c>
       <c r="R63" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="S63" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T63" t="n">
         <v>5.6</v>
       </c>
       <c r="U63" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="V63" t="n">
         <v>9.75</v>
       </c>
       <c r="W63" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X63" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y63" t="n">
         <v>45</v>
@@ -7771,7 +7771,7 @@
         <v>5.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB63" t="n">
         <v>20</v>
@@ -7795,7 +7795,7 @@
         <v>45</v>
       </c>
       <c r="AI63" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ63" t="n">
         <v>60</v>
@@ -8077,70 +8077,70 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="H66" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I66" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J66" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K66" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L66" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M66" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="N66" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q66" t="n">
         <v>2.35</v>
       </c>
-      <c r="O66" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P66" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>2.42</v>
-      </c>
       <c r="R66" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="S66" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T66" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="U66" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="V66" t="n">
         <v>8.75</v>
       </c>
       <c r="W66" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="X66" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Y66" t="n">
         <v>40</v>
       </c>
       <c r="Z66" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AA66" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AB66" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC66" t="n">
         <v>120</v>
@@ -8149,22 +8149,22 @@
         <v>101</v>
       </c>
       <c r="AE66" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF66" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AG66" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AH66" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ66" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67">
@@ -8226,10 +8226,10 @@
         <v>1.65</v>
       </c>
       <c r="P67" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R67" t="n">
         <v>2</v>
@@ -8348,10 +8348,10 @@
         <v>1.65</v>
       </c>
       <c r="P68" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R68" t="n">
         <v>2.1</v>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H69" t="n">
         <v>3.1</v>
@@ -8460,7 +8460,7 @@
         <v>2.75</v>
       </c>
       <c r="N69" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O69" t="n">
         <v>1.57</v>
@@ -8564,7 +8564,7 @@
         <v>1.34</v>
       </c>
       <c r="H70" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I70" t="n">
         <v>8.5</v>
@@ -8596,7 +8596,7 @@
         <v>1.52</v>
       </c>
       <c r="T70" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="U70" t="n">
         <v>4.75</v>
@@ -8635,7 +8635,7 @@
         <v>45</v>
       </c>
       <c r="AG70" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH70" t="n">
         <v>200</v>
@@ -8950,7 +8950,7 @@
         <v>1.73</v>
       </c>
       <c r="T73" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="U73" t="n">
         <v>11</v>
@@ -8998,7 +8998,7 @@
         <v>17</v>
       </c>
       <c r="AJ73" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
@@ -9252,7 +9252,7 @@
         <v>1.87</v>
       </c>
       <c r="T76" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="U76" t="n">
         <v>9</v>
@@ -9294,7 +9294,7 @@
         <v>14.5</v>
       </c>
       <c r="AH76" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI76" t="n">
         <v>45</v>
@@ -9606,7 +9606,7 @@
         <v>1.93</v>
       </c>
       <c r="P79" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q79" t="n">
         <v>3</v>
@@ -9728,7 +9728,7 @@
         <v>2</v>
       </c>
       <c r="P80" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q80" t="n">
         <v>3.25</v>
@@ -9850,10 +9850,10 @@
         <v>1.7</v>
       </c>
       <c r="P81" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R81" t="n">
         <v>1.91</v>
@@ -10067,7 +10067,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H83" t="n">
         <v>3.25</v>
@@ -10079,7 +10079,7 @@
         <v>1.09</v>
       </c>
       <c r="K83" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="L83" t="n">
         <v>1.42</v>
@@ -10115,31 +10115,31 @@
         <v>9.25</v>
       </c>
       <c r="W83" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="X83" t="n">
         <v>19</v>
       </c>
       <c r="Y83" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z83" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA83" t="n">
         <v>6.6</v>
       </c>
       <c r="AB83" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC83" t="n">
         <v>110</v>
       </c>
       <c r="AD83" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE83" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF83" t="n">
         <v>23</v>
@@ -10154,7 +10154,7 @@
         <v>45</v>
       </c>
       <c r="AJ83" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84">
@@ -10189,28 +10189,28 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="H84" t="n">
         <v>3.15</v>
       </c>
       <c r="I84" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="J84" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K84" t="n">
         <v>6.4</v>
       </c>
       <c r="L84" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M84" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="N84" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="O84" t="n">
         <v>1.6</v>
@@ -10231,19 +10231,19 @@
         <v>6.1</v>
       </c>
       <c r="U84" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V84" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="W84" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X84" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y84" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z84" t="n">
         <v>6.4</v>
@@ -10258,25 +10258,25 @@
         <v>110</v>
       </c>
       <c r="AD84" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE84" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF84" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AG84" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH84" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AI84" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AJ84" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85">
@@ -10559,19 +10559,19 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H89" t="n">
         <v>2.9</v>
       </c>
       <c r="I89" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J89" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K89" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L89" t="n">
         <v>1.53</v>
@@ -10583,7 +10583,7 @@
         <v>2.7</v>
       </c>
       <c r="O89" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P89" t="n">
         <v>1.57</v>
@@ -10595,19 +10595,19 @@
         <v>2.2</v>
       </c>
       <c r="S89" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
       </c>
       <c r="U89" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V89" t="n">
         <v>12</v>
       </c>
       <c r="W89" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X89" t="n">
         <v>29</v>
@@ -10631,7 +10631,7 @@
         <v>101</v>
       </c>
       <c r="AE89" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF89" t="n">
         <v>11</v>
@@ -10705,7 +10705,7 @@
         <v>2.6</v>
       </c>
       <c r="O90" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P90" t="n">
         <v>1.57</v>
@@ -10717,7 +10717,7 @@
         <v>2.2</v>
       </c>
       <c r="S90" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T90" t="n">
         <v>6</v>
@@ -10803,19 +10803,19 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H91" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I91" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J91" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L91" t="n">
         <v>1.4</v>
@@ -10827,7 +10827,7 @@
         <v>2.25</v>
       </c>
       <c r="O91" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P91" t="n">
         <v>1.44</v>
@@ -10839,13 +10839,13 @@
         <v>2.1</v>
       </c>
       <c r="S91" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T91" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U91" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V91" t="n">
         <v>9</v>
@@ -10860,10 +10860,10 @@
         <v>34</v>
       </c>
       <c r="Z91" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA91" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB91" t="n">
         <v>19</v>
@@ -10875,13 +10875,13 @@
         <v>1250</v>
       </c>
       <c r="AE91" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF91" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG91" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH91" t="n">
         <v>51</v>
@@ -11071,7 +11071,7 @@
         <v>2.15</v>
       </c>
       <c r="O93" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P93" t="n">
         <v>1.44</v>
@@ -11080,10 +11080,10 @@
         <v>2.63</v>
       </c>
       <c r="R93" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S93" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T93" t="n">
         <v>6.5</v>
@@ -11169,19 +11169,19 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H94" t="n">
         <v>3.3</v>
       </c>
       <c r="I94" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J94" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L94" t="n">
         <v>1.29</v>
@@ -11202,22 +11202,22 @@
         <v>2.75</v>
       </c>
       <c r="R94" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S94" t="n">
         <v>2</v>
       </c>
       <c r="T94" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U94" t="n">
         <v>13</v>
       </c>
       <c r="V94" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W94" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X94" t="n">
         <v>21</v>
@@ -11247,13 +11247,13 @@
         <v>12</v>
       </c>
       <c r="AG94" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH94" t="n">
         <v>23</v>
       </c>
       <c r="AI94" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ94" t="n">
         <v>29</v>
@@ -11315,7 +11315,7 @@
         <v>2.05</v>
       </c>
       <c r="O95" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P95" t="n">
         <v>1.4</v>
@@ -11327,7 +11327,7 @@
         <v>2</v>
       </c>
       <c r="S95" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T95" t="n">
         <v>6</v>
@@ -11413,13 +11413,13 @@
         </is>
       </c>
       <c r="G96" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H96" t="n">
         <v>3.2</v>
       </c>
-      <c r="H96" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I96" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J96" t="n">
         <v>1.06</v>
@@ -11434,25 +11434,25 @@
         <v>3.25</v>
       </c>
       <c r="N96" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O96" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="P96" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R96" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S96" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T96" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U96" t="n">
         <v>17</v>
@@ -11467,10 +11467,10 @@
         <v>29</v>
       </c>
       <c r="Y96" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z96" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA96" t="n">
         <v>6</v>
@@ -11491,7 +11491,7 @@
         <v>10</v>
       </c>
       <c r="AG96" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH96" t="n">
         <v>21</v>
@@ -11559,7 +11559,7 @@
         <v>2.05</v>
       </c>
       <c r="O97" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P97" t="n">
         <v>1.44</v>
@@ -11568,10 +11568,10 @@
         <v>2.63</v>
       </c>
       <c r="R97" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S97" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T97" t="n">
         <v>8.5</v>
@@ -11657,13 +11657,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H98" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I98" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J98" t="n">
         <v>1.08</v>
@@ -11678,19 +11678,19 @@
         <v>2.63</v>
       </c>
       <c r="N98" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="O98" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P98" t="n">
         <v>1.5</v>
-      </c>
-      <c r="P98" t="n">
-        <v>1.47</v>
       </c>
       <c r="Q98" t="n">
         <v>2.5</v>
       </c>
       <c r="R98" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="S98" t="n">
         <v>1.5</v>
@@ -11699,13 +11699,13 @@
         <v>5</v>
       </c>
       <c r="U98" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V98" t="n">
         <v>9.5</v>
       </c>
       <c r="W98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X98" t="n">
         <v>17</v>
@@ -11720,22 +11720,22 @@
         <v>7.5</v>
       </c>
       <c r="AB98" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC98" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD98" t="n">
         <v>101</v>
       </c>
       <c r="AE98" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF98" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG98" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH98" t="n">
         <v>67</v>
@@ -11744,7 +11744,7 @@
         <v>51</v>
       </c>
       <c r="AJ98" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99">
@@ -11806,16 +11806,16 @@
         <v>1.85</v>
       </c>
       <c r="P99" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q99" t="n">
         <v>3</v>
       </c>
       <c r="R99" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S99" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -12042,13 +12042,13 @@
         <v>1.98</v>
       </c>
       <c r="P101" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q101" t="n">
         <v>3</v>
       </c>
       <c r="R101" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S101" t="n">
         <v>2</v>
@@ -12164,16 +12164,16 @@
         <v>1.85</v>
       </c>
       <c r="P102" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q102" t="n">
         <v>2.75</v>
       </c>
       <c r="R102" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S102" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -12869,13 +12869,13 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H108" t="n">
         <v>3.2</v>
       </c>
       <c r="I108" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J108" t="n">
         <v>1.07</v>
@@ -12908,7 +12908,7 @@
         <v>1.83</v>
       </c>
       <c r="T108" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U108" t="n">
         <v>13</v>
@@ -12938,7 +12938,7 @@
         <v>51</v>
       </c>
       <c r="AD108" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE108" t="n">
         <v>7.5</v>
@@ -13970,10 +13970,10 @@
         <v>5.75</v>
       </c>
       <c r="J117" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K117" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L117" t="n">
         <v>1.33</v>
@@ -15193,7 +15193,7 @@
         <v>1.06</v>
       </c>
       <c r="K127" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L127" t="n">
         <v>1.33</v>
@@ -15303,7 +15303,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H128" t="n">
         <v>4</v>
@@ -15351,7 +15351,7 @@
         <v>8.5</v>
       </c>
       <c r="W128" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X128" t="n">
         <v>13</v>
@@ -15363,13 +15363,13 @@
         <v>13</v>
       </c>
       <c r="AA128" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB128" t="n">
         <v>15</v>
       </c>
       <c r="AC128" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD128" t="n">
         <v>201</v>
@@ -15547,13 +15547,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H130" t="n">
         <v>4.33</v>
       </c>
       <c r="I130" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J130" t="n">
         <v>1.04</v>
@@ -15607,7 +15607,7 @@
         <v>13</v>
       </c>
       <c r="AA130" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB130" t="n">
         <v>17</v>
@@ -15791,7 +15791,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H132" t="n">
         <v>3.9</v>
@@ -15812,22 +15812,22 @@
         <v>4</v>
       </c>
       <c r="N132" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O132" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P132" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q132" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R132" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S132" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T132" t="n">
         <v>13</v>
@@ -15842,7 +15842,7 @@
         <v>41</v>
       </c>
       <c r="X132" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y132" t="n">
         <v>34</v>
@@ -15866,7 +15866,7 @@
         <v>8.5</v>
       </c>
       <c r="AF132" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG132" t="n">
         <v>8.5</v>
@@ -15878,7 +15878,7 @@
         <v>13</v>
       </c>
       <c r="AJ132" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133">
@@ -16166,10 +16166,10 @@
         <v>2.75</v>
       </c>
       <c r="J135" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K135" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L135" t="n">
         <v>1.4</v>
@@ -16660,16 +16660,16 @@
         <v>9</v>
       </c>
       <c r="L139" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M139" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N139" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O139" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P139" t="n">
         <v>1.44</v>
@@ -16889,7 +16889,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H141" t="n">
         <v>4</v>
@@ -16937,7 +16937,7 @@
         <v>8.5</v>
       </c>
       <c r="W141" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X141" t="n">
         <v>13</v>
@@ -16949,7 +16949,7 @@
         <v>10</v>
       </c>
       <c r="AA141" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB141" t="n">
         <v>19</v>
@@ -16964,7 +16964,7 @@
         <v>17</v>
       </c>
       <c r="AF141" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG141" t="n">
         <v>21</v>
@@ -17865,13 +17865,13 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>3.4</v>
       </c>
       <c r="I149" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J149" t="n">
         <v>1.04</v>
@@ -18234,35 +18234,35 @@
         <v>3</v>
       </c>
       <c r="H152" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I152" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="M152" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="N152" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O152" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="S152" t="n">
-        <v>2.37</v>
+        <v>2.29</v>
       </c>
       <c r="T152" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="U152" t="n">
         <v>14.5</v>
@@ -18274,31 +18274,31 @@
         <v>30</v>
       </c>
       <c r="X152" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y152" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z152" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA152" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB152" t="n">
         <v>10.5</v>
       </c>
       <c r="AC152" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD152" t="n">
         <v>200</v>
       </c>
       <c r="AE152" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AF152" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AG152" t="n">
         <v>7.4</v>
@@ -18307,10 +18307,10 @@
         <v>15.5</v>
       </c>
       <c r="AI152" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ152" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153">
@@ -20277,13 +20277,13 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H171" t="n">
         <v>3.4</v>
       </c>
       <c r="I171" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J171" t="n">
         <v>1.04</v>
@@ -20310,13 +20310,13 @@
         <v>3.4</v>
       </c>
       <c r="R171" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S171" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T171" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U171" t="n">
         <v>12</v>
@@ -20334,7 +20334,7 @@
         <v>21</v>
       </c>
       <c r="Z171" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA171" t="n">
         <v>7</v>
@@ -20343,7 +20343,7 @@
         <v>12</v>
       </c>
       <c r="AC171" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD171" t="n">
         <v>126</v>
@@ -20364,7 +20364,7 @@
         <v>23</v>
       </c>
       <c r="AJ171" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="172">
@@ -20399,25 +20399,25 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H172" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I172" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J172" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K172" t="n">
         <v>7</v>
       </c>
       <c r="L172" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M172" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N172" t="n">
         <v>2.4</v>
@@ -20459,7 +20459,7 @@
         <v>7</v>
       </c>
       <c r="AA172" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB172" t="n">
         <v>19</v>
@@ -20471,7 +20471,7 @@
         <v>501</v>
       </c>
       <c r="AE172" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF172" t="n">
         <v>19</v>
@@ -20527,7 +20527,7 @@
         <v>3.6</v>
       </c>
       <c r="I173" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J173" t="n">
         <v>1.05</v>
@@ -20560,7 +20560,7 @@
         <v>2</v>
       </c>
       <c r="T173" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U173" t="n">
         <v>19</v>
@@ -20587,13 +20587,13 @@
         <v>15</v>
       </c>
       <c r="AC173" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD173" t="n">
         <v>201</v>
       </c>
       <c r="AE173" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF173" t="n">
         <v>9.5</v>
@@ -21202,10 +21202,10 @@
         <v>1.85</v>
       </c>
       <c r="H179" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I179" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J179" t="n">
         <v>1.03</v>
@@ -21214,28 +21214,28 @@
         <v>15</v>
       </c>
       <c r="L179" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M179" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N179" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O179" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P179" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q179" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R179" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S179" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T179" t="n">
         <v>9.5</v>
@@ -21268,10 +21268,10 @@
         <v>41</v>
       </c>
       <c r="AD179" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE179" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF179" t="n">
         <v>21</v>
@@ -21696,10 +21696,10 @@
         <v>3.25</v>
       </c>
       <c r="N183" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O183" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
@@ -21734,7 +21734,7 @@
         <v>6.7</v>
       </c>
       <c r="AB183" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC183" t="n">
         <v>55</v>
@@ -21749,7 +21749,7 @@
         <v>9.75</v>
       </c>
       <c r="AG183" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH183" t="n">
         <v>17.5</v>
@@ -22415,7 +22415,7 @@
         <v>1.08</v>
       </c>
       <c r="K189" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L189" t="n">
         <v>1.44</v>
@@ -23272,16 +23272,16 @@
         <v>11</v>
       </c>
       <c r="L196" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M196" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N196" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O196" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P196" t="n">
         <v>1.36</v>
@@ -23379,7 +23379,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H197" t="n">
         <v>3</v>
@@ -23388,10 +23388,10 @@
         <v>3.1</v>
       </c>
       <c r="J197" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K197" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L197" t="n">
         <v>1.44</v>
@@ -23421,7 +23421,7 @@
         <v>6.5</v>
       </c>
       <c r="U197" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V197" t="n">
         <v>10</v>
@@ -23430,10 +23430,10 @@
         <v>23</v>
       </c>
       <c r="X197" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y197" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z197" t="n">
         <v>7</v>
@@ -23623,19 +23623,19 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H199" t="n">
         <v>2.9</v>
       </c>
       <c r="I199" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J199" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K199" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L199" t="n">
         <v>1.53</v>
@@ -23668,13 +23668,13 @@
         <v>13</v>
       </c>
       <c r="V199" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W199" t="n">
         <v>34</v>
       </c>
       <c r="X199" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y199" t="n">
         <v>41</v>
@@ -23698,13 +23698,13 @@
         <v>6</v>
       </c>
       <c r="AF199" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG199" t="n">
         <v>11</v>
       </c>
       <c r="AH199" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI199" t="n">
         <v>26</v>
@@ -23748,7 +23748,7 @@
         <v>2.75</v>
       </c>
       <c r="H200" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I200" t="n">
         <v>2.5</v>
@@ -23757,19 +23757,19 @@
         <v>1.06</v>
       </c>
       <c r="K200" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L200" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M200" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N200" t="n">
         <v>2.05</v>
       </c>
       <c r="O200" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P200" t="n">
         <v>1.4</v>
@@ -23784,7 +23784,7 @@
         <v>1.91</v>
       </c>
       <c r="T200" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U200" t="n">
         <v>13</v>
@@ -23802,7 +23802,7 @@
         <v>34</v>
       </c>
       <c r="Z200" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA200" t="n">
         <v>6.5</v>
@@ -23867,13 +23867,13 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H201" t="n">
         <v>3.5</v>
       </c>
       <c r="I201" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J201" t="n">
         <v>1.06</v>
@@ -23882,16 +23882,16 @@
         <v>10</v>
       </c>
       <c r="L201" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M201" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N201" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O201" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P201" t="n">
         <v>1.44</v>
@@ -23900,19 +23900,19 @@
         <v>2.63</v>
       </c>
       <c r="R201" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S201" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T201" t="n">
         <v>7</v>
       </c>
       <c r="U201" t="n">
+        <v>10</v>
+      </c>
+      <c r="V201" t="n">
         <v>9.5</v>
-      </c>
-      <c r="V201" t="n">
-        <v>9</v>
       </c>
       <c r="W201" t="n">
         <v>19</v>
@@ -23939,7 +23939,7 @@
         <v>351</v>
       </c>
       <c r="AE201" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF201" t="n">
         <v>15</v>
@@ -23954,7 +23954,7 @@
         <v>29</v>
       </c>
       <c r="AJ201" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="202">
@@ -24111,13 +24111,13 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H203" t="n">
         <v>3</v>
       </c>
       <c r="I203" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J203" t="n">
         <v>1.1</v>
@@ -24132,10 +24132,10 @@
         <v>2.63</v>
       </c>
       <c r="N203" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O203" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P203" t="n">
         <v>1.53</v>
@@ -24144,13 +24144,13 @@
         <v>2.38</v>
       </c>
       <c r="R203" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S203" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T203" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U203" t="n">
         <v>11</v>
@@ -24159,16 +24159,16 @@
         <v>11</v>
       </c>
       <c r="W203" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X203" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y203" t="n">
         <v>41</v>
       </c>
       <c r="Z203" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA203" t="n">
         <v>6</v>
@@ -24183,7 +24183,7 @@
         <v>1250</v>
       </c>
       <c r="AE203" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF203" t="n">
         <v>13</v>
@@ -24355,13 +24355,13 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H205" t="n">
         <v>3.6</v>
       </c>
       <c r="I205" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J205" t="n">
         <v>1.05</v>
@@ -24376,16 +24376,16 @@
         <v>3.5</v>
       </c>
       <c r="N205" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O205" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P205" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q205" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R205" t="n">
         <v>1.73</v>
@@ -24415,7 +24415,7 @@
         <v>11</v>
       </c>
       <c r="AA205" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB205" t="n">
         <v>15</v>
@@ -24442,7 +24442,7 @@
         <v>19</v>
       </c>
       <c r="AJ205" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="206">
@@ -24477,19 +24477,19 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H206" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I206" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J206" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K206" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L206" t="n">
         <v>1.22</v>
@@ -24504,10 +24504,10 @@
         <v>2.1</v>
       </c>
       <c r="P206" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q206" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R206" t="n">
         <v>1.8</v>
@@ -24519,16 +24519,16 @@
         <v>7.5</v>
       </c>
       <c r="U206" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V206" t="n">
         <v>8.5</v>
       </c>
       <c r="W206" t="n">
+        <v>11</v>
+      </c>
+      <c r="X206" t="n">
         <v>12</v>
-      </c>
-      <c r="X206" t="n">
-        <v>13</v>
       </c>
       <c r="Y206" t="n">
         <v>23</v>
@@ -24546,7 +24546,7 @@
         <v>51</v>
       </c>
       <c r="AD206" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE206" t="n">
         <v>15</v>
@@ -24713,87 +24713,87 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="H208" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I208" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M208" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="N208" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="O208" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P208" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="Q208" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="R208" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="S208" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="T208" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="U208" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="V208" t="n">
         <v>7.6</v>
       </c>
-      <c r="V208" t="n">
-        <v>7.4</v>
-      </c>
       <c r="W208" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="X208" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y208" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Z208" t="n">
         <v>6.2</v>
       </c>
       <c r="AA208" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AB208" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC208" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD208" t="n">
         <v>101</v>
       </c>
       <c r="AE208" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AF208" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG208" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH208" t="n">
         <v>35</v>
       </c>
       <c r="AI208" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ208" t="n">
         <v>40</v>
@@ -25586,10 +25586,10 @@
         <v>4.33</v>
       </c>
       <c r="N220" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O220" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P220" t="n">
         <v>1.3</v>
@@ -25812,16 +25812,16 @@
         <v>1.44</v>
       </c>
       <c r="H222" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="I222" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J222" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K222" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L222" t="n">
         <v>1.22</v>
@@ -25836,19 +25836,19 @@
         <v>2.1</v>
       </c>
       <c r="P222" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q222" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R222" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S222" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T222" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U222" t="n">
         <v>7</v>
@@ -25869,10 +25869,10 @@
         <v>13</v>
       </c>
       <c r="AA222" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB222" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC222" t="n">
         <v>51</v>
@@ -26719,7 +26719,7 @@
         <v>6.4</v>
       </c>
       <c r="AA229" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB229" t="n">
         <v>20</v>
@@ -26740,7 +26740,7 @@
         <v>11.5</v>
       </c>
       <c r="AH229" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI229" t="n">
         <v>32</v>
@@ -26781,19 +26781,19 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H230" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I230" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J230" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K230" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L230" t="n">
         <v>1.22</v>
@@ -26829,7 +26829,7 @@
         <v>12</v>
       </c>
       <c r="W230" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X230" t="n">
         <v>23</v>
@@ -26841,28 +26841,28 @@
         <v>12</v>
       </c>
       <c r="AA230" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB230" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC230" t="n">
         <v>41</v>
       </c>
       <c r="AD230" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE230" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF230" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG230" t="n">
         <v>9.5</v>
       </c>
       <c r="AH230" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI230" t="n">
         <v>17</v>
@@ -28982,16 +28982,16 @@
         <v>15</v>
       </c>
       <c r="L248" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M248" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N248" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O248" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P248" t="n">
         <v>1.3</v>
@@ -30612,16 +30612,16 @@
         <v>11</v>
       </c>
       <c r="L265" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M265" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N265" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O265" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P265" t="n">
         <v>1.36</v>
@@ -30841,94 +30841,94 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H267" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I267" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J267" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K267" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L267" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M267" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="N267" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O267" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P267" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q267" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R267" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S267" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="T267" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U267" t="n">
         <v>13.5</v>
       </c>
       <c r="V267" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W267" t="n">
         <v>32</v>
       </c>
       <c r="X267" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y267" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Z267" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA267" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB267" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC267" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AD267" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AE267" t="n">
-        <v>8.25</v>
+        <v>7.2</v>
       </c>
       <c r="AF267" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG267" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH267" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI267" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ267" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="268">
@@ -30963,94 +30963,94 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="H268" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I268" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="J268" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K268" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="L268" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M268" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="N268" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O268" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="P268" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="Q268" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="R268" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S268" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T268" t="n">
         <v>8.25</v>
       </c>
       <c r="U268" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="V268" t="n">
         <v>8.25</v>
       </c>
       <c r="W268" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="X268" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y268" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z268" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA268" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AB268" t="n">
         <v>14</v>
       </c>
       <c r="AC268" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD268" t="n">
         <v>400</v>
       </c>
       <c r="AE268" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AF268" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AG268" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="AH268" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AI268" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AJ268" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="269">
@@ -31638,10 +31638,10 @@
         <v>1.7</v>
       </c>
       <c r="H274" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I274" t="n">
         <v>4.2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>4.15</v>
       </c>
       <c r="J274" t="n">
         <v>1.03</v>
@@ -31668,7 +31668,7 @@
         <v>3.45</v>
       </c>
       <c r="R274" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S274" t="n">
         <v>2.32</v>
@@ -31677,7 +31677,7 @@
         <v>9.5</v>
       </c>
       <c r="U274" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="V274" t="n">
         <v>8.75</v>
@@ -31701,13 +31701,13 @@
         <v>14</v>
       </c>
       <c r="AC274" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD274" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE274" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF274" t="n">
         <v>30</v>
@@ -31716,13 +31716,13 @@
         <v>15</v>
       </c>
       <c r="AH274" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI274" t="n">
         <v>35</v>
       </c>
       <c r="AJ274" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="275">
@@ -32379,7 +32379,7 @@
         <v>1.07</v>
       </c>
       <c r="K280" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L280" t="n">
         <v>1.36</v>
@@ -32876,10 +32876,10 @@
         <v>2.2</v>
       </c>
       <c r="N284" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O284" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P284" t="n">
         <v>1.67</v>
@@ -35444,7 +35444,7 @@
         <v>3.4</v>
       </c>
       <c r="P305" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="Q305" t="n">
         <v>4.5</v>
@@ -35566,7 +35566,7 @@
         <v>2.4</v>
       </c>
       <c r="P306" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q306" t="n">
         <v>3.75</v>
@@ -35897,51 +35897,51 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H309" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I309" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M309" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="N309" t="n">
-        <v>2.34</v>
+        <v>2.31</v>
       </c>
       <c r="O309" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P309" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="Q309" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="R309" t="n">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="S309" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="T309" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="U309" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="V309" t="n">
         <v>7.8</v>
       </c>
       <c r="W309" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X309" t="n">
         <v>16</v>
@@ -35950,13 +35950,13 @@
         <v>35</v>
       </c>
       <c r="Z309" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AA309" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AB309" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC309" t="n">
         <v>101</v>
@@ -35968,19 +35968,19 @@
         <v>7.6</v>
       </c>
       <c r="AF309" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG309" t="n">
         <v>12</v>
       </c>
       <c r="AH309" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AI309" t="n">
         <v>40</v>
       </c>
       <c r="AJ309" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="310">
@@ -36201,13 +36201,13 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H313" t="n">
         <v>3</v>
       </c>
       <c r="I313" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J313" t="n">
         <v>1.1</v>
@@ -36228,7 +36228,7 @@
         <v>1.48</v>
       </c>
       <c r="P313" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q313" t="n">
         <v>2.25</v>
@@ -36279,13 +36279,13 @@
         <v>10</v>
       </c>
       <c r="AG313" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH313" t="n">
         <v>23</v>
       </c>
       <c r="AI313" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ313" t="n">
         <v>41</v>
@@ -36323,19 +36323,19 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H314" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I314" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J314" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K314" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L314" t="n">
         <v>1.2</v>
@@ -36350,7 +36350,7 @@
         <v>2.2</v>
       </c>
       <c r="P314" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q314" t="n">
         <v>3.5</v>
@@ -36368,7 +36368,7 @@
         <v>7</v>
       </c>
       <c r="V314" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W314" t="n">
         <v>9</v>
@@ -36383,10 +36383,10 @@
         <v>13</v>
       </c>
       <c r="AA314" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB314" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC314" t="n">
         <v>51</v>
@@ -36472,7 +36472,7 @@
         <v>1.48</v>
       </c>
       <c r="P315" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q315" t="n">
         <v>2.25</v>
@@ -36567,13 +36567,13 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H316" t="n">
         <v>3.4</v>
       </c>
       <c r="I316" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J316" t="n">
         <v>1.03</v>
@@ -36600,16 +36600,16 @@
         <v>3.5</v>
       </c>
       <c r="R316" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S316" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T316" t="n">
         <v>11</v>
       </c>
       <c r="U316" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V316" t="n">
         <v>9</v>
@@ -36639,7 +36639,7 @@
         <v>101</v>
       </c>
       <c r="AE316" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF316" t="n">
         <v>19</v>
@@ -37070,16 +37070,16 @@
         <v>15</v>
       </c>
       <c r="L320" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M320" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N320" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O320" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P320" t="n">
         <v>1.29</v>
@@ -37320,10 +37320,10 @@
         <v>3.4</v>
       </c>
       <c r="N322" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O322" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P322" t="n">
         <v>1.4</v>
@@ -37421,7 +37421,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H323" t="n">
         <v>3.4</v>
@@ -37460,10 +37460,10 @@
         <v>2.25</v>
       </c>
       <c r="T323" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U323" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V323" t="n">
         <v>10</v>
@@ -37490,7 +37490,7 @@
         <v>41</v>
       </c>
       <c r="AD323" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE323" t="n">
         <v>11</v>
@@ -37505,7 +37505,7 @@
         <v>26</v>
       </c>
       <c r="AI323" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ323" t="n">
         <v>26</v>
@@ -37558,16 +37558,16 @@
         <v>13</v>
       </c>
       <c r="L324" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M324" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N324" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O324" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="P324" t="n">
         <v>1.33</v>
@@ -37668,10 +37668,10 @@
         <v>1.62</v>
       </c>
       <c r="H325" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I325" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="J325" t="n">
         <v>1.04</v>
@@ -37698,22 +37698,22 @@
         <v>3.25</v>
       </c>
       <c r="R325" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S325" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T325" t="n">
         <v>8</v>
       </c>
       <c r="U325" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V325" t="n">
         <v>8.5</v>
       </c>
       <c r="W325" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X325" t="n">
         <v>13</v>
@@ -37728,7 +37728,7 @@
         <v>7</v>
       </c>
       <c r="AB325" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC325" t="n">
         <v>41</v>
@@ -37787,7 +37787,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H326" t="n">
         <v>3.9</v>
@@ -37802,16 +37802,16 @@
         <v>13</v>
       </c>
       <c r="L326" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M326" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N326" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O326" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="P326" t="n">
         <v>1.33</v>
@@ -37826,7 +37826,7 @@
         <v>1.95</v>
       </c>
       <c r="T326" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U326" t="n">
         <v>7.5</v>
@@ -37835,22 +37835,22 @@
         <v>8.5</v>
       </c>
       <c r="W326" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X326" t="n">
         <v>13</v>
       </c>
       <c r="Y326" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z326" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA326" t="n">
         <v>7.5</v>
       </c>
       <c r="AB326" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC326" t="n">
         <v>51</v>
@@ -37859,7 +37859,7 @@
         <v>251</v>
       </c>
       <c r="AE326" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF326" t="n">
         <v>29</v>
@@ -37909,19 +37909,19 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H327" t="n">
         <v>3.4</v>
       </c>
       <c r="I327" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J327" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K327" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L327" t="n">
         <v>1.13</v>
@@ -37942,10 +37942,10 @@
         <v>4</v>
       </c>
       <c r="R327" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S327" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T327" t="n">
         <v>13</v>
@@ -37969,7 +37969,7 @@
         <v>19</v>
       </c>
       <c r="AA327" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB327" t="n">
         <v>10</v>
@@ -37993,7 +37993,7 @@
         <v>41</v>
       </c>
       <c r="AI327" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ327" t="n">
         <v>26</v>
@@ -38156,43 +38156,43 @@
         <v>1.7</v>
       </c>
       <c r="H329" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I329" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J329" t="n">
         <v>1.05</v>
       </c>
       <c r="K329" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L329" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M329" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="N329" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O329" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="P329" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="Q329" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="R329" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S329" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T329" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="U329" t="n">
         <v>8.25</v>
@@ -38210,10 +38210,10 @@
         <v>25</v>
       </c>
       <c r="Z329" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AA329" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AB329" t="n">
         <v>15.5</v>
@@ -38222,16 +38222,16 @@
         <v>70</v>
       </c>
       <c r="AD329" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE329" t="n">
         <v>12.5</v>
       </c>
       <c r="AF329" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG329" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH329" t="n">
         <v>70</v>
@@ -38397,10 +38397,10 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="H331" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I331" t="n">
         <v>2.72</v>
@@ -38409,13 +38409,13 @@
         <v>1.06</v>
       </c>
       <c r="K331" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="L331" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M331" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="N331" t="n">
         <v>1.93</v>
@@ -38433,10 +38433,10 @@
         <v>1.75</v>
       </c>
       <c r="S331" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T331" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="U331" t="n">
         <v>11.5</v>
@@ -38454,7 +38454,7 @@
         <v>30</v>
       </c>
       <c r="Z331" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AA331" t="n">
         <v>6.4</v>
@@ -38469,7 +38469,7 @@
         <v>500</v>
       </c>
       <c r="AE331" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF331" t="n">
         <v>14</v>
@@ -38519,31 +38519,31 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H332" t="n">
         <v>3.1</v>
       </c>
       <c r="I332" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J332" t="n">
         <v>1.08</v>
       </c>
       <c r="K332" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="L332" t="n">
         <v>1.39</v>
       </c>
       <c r="M332" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="N332" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="O332" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P332" t="n">
         <v>1.5</v>
@@ -38552,58 +38552,58 @@
         <v>2.42</v>
       </c>
       <c r="R332" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S332" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T332" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="U332" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="V332" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W332" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X332" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y332" t="n">
         <v>35</v>
       </c>
       <c r="Z332" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AA332" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB332" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC332" t="n">
         <v>80</v>
       </c>
       <c r="AD332" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE332" t="n">
         <v>8.5</v>
       </c>
       <c r="AF332" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG332" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH332" t="n">
         <v>40</v>
       </c>
       <c r="AI332" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ332" t="n">
         <v>40</v>
@@ -38641,70 +38641,70 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="H333" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I333" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="J333" t="n">
         <v>1.05</v>
       </c>
       <c r="K333" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="L333" t="n">
         <v>1.25</v>
       </c>
       <c r="M333" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="N333" t="n">
         <v>1.75</v>
       </c>
       <c r="O333" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P333" t="n">
         <v>1.37</v>
       </c>
       <c r="Q333" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="R333" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S333" t="n">
         <v>2.02</v>
       </c>
       <c r="T333" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="U333" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="V333" t="n">
         <v>8.25</v>
       </c>
       <c r="W333" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="X333" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y333" t="n">
         <v>23</v>
       </c>
       <c r="Z333" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AA333" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AB333" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC333" t="n">
         <v>60</v>
@@ -38713,22 +38713,22 @@
         <v>450</v>
       </c>
       <c r="AE333" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF333" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG333" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH333" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI333" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ333" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="334">
@@ -38766,10 +38766,10 @@
         <v>1.8</v>
       </c>
       <c r="H334" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I334" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J334" t="n">
         <v>1.05</v>
@@ -38802,7 +38802,7 @@
         <v>2.1</v>
       </c>
       <c r="T334" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U334" t="n">
         <v>9.5</v>
@@ -38823,7 +38823,7 @@
         <v>7.9</v>
       </c>
       <c r="AA334" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB334" t="n">
         <v>13.5</v>
@@ -38835,10 +38835,10 @@
         <v>400</v>
       </c>
       <c r="AE334" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF334" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG334" t="n">
         <v>13</v>
@@ -39046,10 +39046,10 @@
         <v>1.91</v>
       </c>
       <c r="T336" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="U336" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="V336" t="n">
         <v>9</v>
@@ -39058,7 +39058,7 @@
         <v>22</v>
       </c>
       <c r="X336" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y336" t="n">
         <v>30</v>
@@ -39079,10 +39079,10 @@
         <v>600</v>
       </c>
       <c r="AE336" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF336" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG336" t="n">
         <v>10.75</v>
@@ -39150,10 +39150,10 @@
         <v>3.1</v>
       </c>
       <c r="N337" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O337" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P337" t="n">
         <v>1.44</v>
@@ -39171,13 +39171,13 @@
         <v>8.75</v>
       </c>
       <c r="U337" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V337" t="n">
         <v>9.75</v>
       </c>
       <c r="W337" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X337" t="n">
         <v>22</v>
@@ -39198,10 +39198,10 @@
         <v>60</v>
       </c>
       <c r="AD337" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE337" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF337" t="n">
         <v>12.5</v>
@@ -39373,10 +39373,10 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="H339" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I339" t="n">
         <v>2.95</v>
@@ -39390,25 +39390,25 @@
         <v>2.45</v>
       </c>
       <c r="N339" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="O339" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P339" t="n">
         <v>1.5</v>
       </c>
       <c r="Q339" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="R339" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S339" t="n">
         <v>1.7</v>
       </c>
       <c r="T339" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="U339" t="n">
         <v>10.5</v>
@@ -39417,7 +39417,7 @@
         <v>9.75</v>
       </c>
       <c r="W339" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X339" t="n">
         <v>22</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-03.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -680,10 +680,10 @@
         <v>3.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T2" t="n">
         <v>9</v>
@@ -731,7 +731,7 @@
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
@@ -790,10 +790,10 @@
         <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="O3" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -1022,13 +1022,13 @@
         <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
         <v>11</v>
       </c>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
@@ -1135,22 +1135,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H6" t="n">
         <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
         <v>17</v>
       </c>
       <c r="L6" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M6" t="n">
         <v>5.5</v>
@@ -1213,13 +1213,13 @@
         <v>17</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
         <v>21</v>
@@ -1266,13 +1266,13 @@
         <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K7" t="n">
         <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
         <v>3.75</v>
@@ -1394,7 +1394,7 @@
         <v>23</v>
       </c>
       <c r="L8" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="M8" t="n">
         <v>7</v>
@@ -1510,13 +1510,13 @@
         <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K9" t="n">
         <v>19</v>
       </c>
       <c r="L9" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M9" t="n">
         <v>5.5</v>
@@ -1632,13 +1632,13 @@
         <v>1.65</v>
       </c>
       <c r="J10" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K10" t="n">
         <v>21</v>
       </c>
       <c r="L10" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="M10" t="n">
         <v>7</v>
@@ -1766,10 +1766,10 @@
         <v>4</v>
       </c>
       <c r="N11" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="O11" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="P11" t="n">
         <v>1.33</v>
@@ -2376,10 +2376,10 @@
         <v>3.4</v>
       </c>
       <c r="N16" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O16" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="P16" t="n">
         <v>1.4</v>
@@ -2606,13 +2606,13 @@
         <v>5.25</v>
       </c>
       <c r="J18" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K18" t="n">
         <v>15</v>
       </c>
       <c r="L18" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M18" t="n">
         <v>4.33</v>
@@ -2728,13 +2728,13 @@
         <v>1.55</v>
       </c>
       <c r="J19" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K19" t="n">
         <v>15</v>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
         <v>3.8</v>
@@ -2850,34 +2850,34 @@
         <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K20" t="n">
         <v>13</v>
       </c>
       <c r="L20" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="M20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S20" t="n">
         <v>2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.95</v>
       </c>
       <c r="T20" t="n">
         <v>7.5</v>
@@ -2898,10 +2898,10 @@
         <v>23</v>
       </c>
       <c r="Z20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB20" t="n">
         <v>15</v>
@@ -2910,7 +2910,7 @@
         <v>51</v>
       </c>
       <c r="AD20" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
@@ -2972,13 +2972,13 @@
         <v>21</v>
       </c>
       <c r="J21" t="n">
+        <v>34</v>
+      </c>
+      <c r="K21" t="n">
         <v>1.01</v>
       </c>
-      <c r="K21" t="n">
-        <v>34</v>
-      </c>
       <c r="L21" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="M21" t="n">
         <v>11</v>
@@ -3094,16 +3094,16 @@
         <v>2.15</v>
       </c>
       <c r="J22" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K22" t="n">
         <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="M22" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="N22" t="n">
         <v>2.5</v>
@@ -3216,13 +3216,13 @@
         <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K23" t="n">
         <v>15</v>
       </c>
       <c r="L23" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M23" t="n">
         <v>4.5</v>
@@ -3463,7 +3463,7 @@
         <v>1.01</v>
       </c>
       <c r="K25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L25" t="n">
         <v>1.06</v>
@@ -3472,10 +3472,10 @@
         <v>10</v>
       </c>
       <c r="N25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="O25" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="P25" t="n">
         <v>1.14</v>
@@ -3707,25 +3707,25 @@
         <v>1.17</v>
       </c>
       <c r="K27" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R27" t="n">
         <v>2.38</v>
@@ -4094,10 +4094,10 @@
         <v>2.38</v>
       </c>
       <c r="R30" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S30" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T30" t="n">
         <v>5.5</v>
@@ -4121,7 +4121,7 @@
         <v>7</v>
       </c>
       <c r="AA30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB30" t="n">
         <v>21</v>
@@ -4133,10 +4133,10 @@
         <v>101</v>
       </c>
       <c r="AE30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG30" t="n">
         <v>15</v>
@@ -4192,10 +4192,10 @@
         <v>5.5</v>
       </c>
       <c r="J31" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K31" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L31" t="n">
         <v>1.53</v>
@@ -4204,10 +4204,10 @@
         <v>2.38</v>
       </c>
       <c r="N31" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P31" t="n">
         <v>1.57</v>
@@ -4802,10 +4802,10 @@
         <v>5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L36" t="n">
         <v>1.53</v>
@@ -4814,10 +4814,10 @@
         <v>2.38</v>
       </c>
       <c r="N36" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P36" t="n">
         <v>1.57</v>
@@ -5171,7 +5171,7 @@
         <v>1.03</v>
       </c>
       <c r="K39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L39" t="n">
         <v>1.17</v>
@@ -5406,43 +5406,43 @@
         <v>4.33</v>
       </c>
       <c r="H41" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I41" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K41" t="n">
+        <v>13</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="n">
         <v>1.75</v>
       </c>
-      <c r="J41" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K41" t="n">
-        <v>11</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M41" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1.85</v>
-      </c>
       <c r="O41" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="P41" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R41" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S41" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U41" t="n">
         <v>23</v>
@@ -5451,7 +5451,7 @@
         <v>15</v>
       </c>
       <c r="W41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X41" t="n">
         <v>34</v>
@@ -5460,10 +5460,10 @@
         <v>41</v>
       </c>
       <c r="Z41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB41" t="n">
         <v>15</v>
@@ -5472,10 +5472,10 @@
         <v>51</v>
       </c>
       <c r="AD41" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF41" t="n">
         <v>8.5</v>
@@ -5484,13 +5484,13 @@
         <v>8.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -5525,10 +5525,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="H42" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="I42" t="n">
         <v>1.57</v>
@@ -5537,34 +5537,34 @@
         <v>1.03</v>
       </c>
       <c r="K42" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="L42" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M42" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N42" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O42" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P42" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S42" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="T42" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="U42" t="n">
         <v>32</v>
@@ -5582,37 +5582,37 @@
         <v>35</v>
       </c>
       <c r="Z42" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA42" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC42" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD42" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE42" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF42" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AG42" t="n">
         <v>8.25</v>
       </c>
       <c r="AH42" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI42" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AJ42" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
@@ -6141,19 +6141,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I50" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J50" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L50" t="n">
         <v>1.25</v>
@@ -6174,22 +6174,22 @@
         <v>3</v>
       </c>
       <c r="R50" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S50" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T50" t="n">
         <v>8</v>
       </c>
       <c r="U50" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V50" t="n">
         <v>8.5</v>
       </c>
       <c r="W50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X50" t="n">
         <v>15</v>
@@ -6198,13 +6198,13 @@
         <v>23</v>
       </c>
       <c r="Z50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA50" t="n">
         <v>7</v>
       </c>
       <c r="AB50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC50" t="n">
         <v>41</v>
@@ -7598,10 +7598,10 @@
         <v>3.2</v>
       </c>
       <c r="J62" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L62" t="n">
         <v>1.4</v>
@@ -7610,10 +7610,10 @@
         <v>3</v>
       </c>
       <c r="N62" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O62" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P62" t="n">
         <v>1.44</v>
@@ -7762,7 +7762,7 @@
         <v>21</v>
       </c>
       <c r="X63" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y63" t="n">
         <v>45</v>
@@ -7783,19 +7783,19 @@
         <v>101</v>
       </c>
       <c r="AE63" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AF63" t="n">
         <v>15</v>
       </c>
       <c r="AG63" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH63" t="n">
         <v>45</v>
       </c>
       <c r="AI63" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ63" t="n">
         <v>60</v>
@@ -7955,55 +7955,55 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="H65" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="I65" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="J65" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K65" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="L65" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M65" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="N65" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O65" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P65" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="R65" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="S65" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="T65" t="n">
         <v>5</v>
       </c>
       <c r="U65" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="V65" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W65" t="n">
         <v>8.5</v>
-      </c>
-      <c r="W65" t="n">
-        <v>9.5</v>
       </c>
       <c r="X65" t="n">
         <v>14</v>
@@ -8012,37 +8012,37 @@
         <v>40</v>
       </c>
       <c r="Z65" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AA65" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB65" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC65" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD65" t="n">
         <v>101</v>
       </c>
       <c r="AE65" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF65" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG65" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AH65" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI65" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ65" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66">
@@ -9216,7 +9216,7 @@
         <v>1.85</v>
       </c>
       <c r="H76" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I76" t="n">
         <v>4.15</v>
@@ -9243,7 +9243,7 @@
         <v>1.45</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="R76" t="n">
         <v>1.83</v>
@@ -9252,7 +9252,7 @@
         <v>1.87</v>
       </c>
       <c r="T76" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="U76" t="n">
         <v>9</v>
@@ -10189,94 +10189,94 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="H84" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I84" t="n">
-        <v>3.85</v>
+        <v>4.45</v>
       </c>
       <c r="J84" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K84" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L84" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M84" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="N84" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O84" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P84" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="R84" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S84" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T84" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="U84" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="V84" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W84" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="X84" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y84" t="n">
         <v>37</v>
       </c>
       <c r="Z84" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AA84" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AB84" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AC84" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD84" t="n">
         <v>1250</v>
       </c>
       <c r="AE84" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF84" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AG84" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AH84" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ84" t="n">
         <v>65</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>45</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="85">
@@ -10310,36 +10310,92 @@
           <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H85" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4.2</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
-      <c r="AA85" t="inlineStr"/>
-      <c r="AB85" t="inlineStr"/>
-      <c r="AC85" t="inlineStr"/>
-      <c r="AD85" t="inlineStr"/>
-      <c r="AE85" t="inlineStr"/>
-      <c r="AF85" t="inlineStr"/>
-      <c r="AG85" t="inlineStr"/>
-      <c r="AH85" t="inlineStr"/>
-      <c r="AI85" t="inlineStr"/>
-      <c r="AJ85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R85" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T85" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="U85" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V85" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W85" t="n">
+        <v>15</v>
+      </c>
+      <c r="X85" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10559,10 +10615,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H89" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
         <v>2.6</v>
@@ -11291,19 +11347,19 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H95" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I95" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J95" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K95" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L95" t="n">
         <v>1.33</v>
@@ -11324,13 +11380,13 @@
         <v>2.75</v>
       </c>
       <c r="R95" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S95" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T95" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U95" t="n">
         <v>7.5</v>
@@ -11339,7 +11395,7 @@
         <v>8.5</v>
       </c>
       <c r="W95" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X95" t="n">
         <v>15</v>
@@ -11354,19 +11410,19 @@
         <v>7</v>
       </c>
       <c r="AB95" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC95" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD95" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AE95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF95" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG95" t="n">
         <v>17</v>
@@ -11378,7 +11434,7 @@
         <v>41</v>
       </c>
       <c r="AJ95" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96">
@@ -11535,19 +11591,19 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H97" t="n">
         <v>3.1</v>
       </c>
       <c r="I97" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J97" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K97" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L97" t="n">
         <v>1.33</v>
@@ -11562,10 +11618,10 @@
         <v>1.75</v>
       </c>
       <c r="P97" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R97" t="n">
         <v>1.8</v>
@@ -11574,31 +11630,31 @@
         <v>1.91</v>
       </c>
       <c r="T97" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U97" t="n">
         <v>13</v>
       </c>
       <c r="V97" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W97" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X97" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y97" t="n">
         <v>34</v>
       </c>
       <c r="Z97" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA97" t="n">
         <v>6</v>
       </c>
       <c r="AB97" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC97" t="n">
         <v>51</v>
@@ -11610,16 +11666,16 @@
         <v>8.5</v>
       </c>
       <c r="AF97" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG97" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH97" t="n">
         <v>26</v>
       </c>
       <c r="AI97" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ97" t="n">
         <v>34</v>
@@ -12536,10 +12592,10 @@
         <v>2.63</v>
       </c>
       <c r="R105" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S105" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T105" t="n">
         <v>7.5</v>
@@ -12658,7 +12714,7 @@
         <v>3</v>
       </c>
       <c r="R106" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S106" t="n">
         <v>2.1</v>
@@ -13578,7 +13634,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -13597,31 +13653,31 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="H114" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="I114" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="J114" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="K114" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="L114" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="M114" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="N114" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O114" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P114" t="n">
         <v>1.65</v>
@@ -13630,37 +13686,37 @@
         <v>2.1</v>
       </c>
       <c r="R114" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="S114" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="T114" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="U114" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="V114" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W114" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X114" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y114" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z114" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="AA114" t="n">
         <v>5.6</v>
       </c>
       <c r="AB114" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC114" t="n">
         <v>175</v>
@@ -13669,10 +13725,10 @@
         <v>101</v>
       </c>
       <c r="AE114" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AF114" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG114" t="n">
         <v>15.5</v>
@@ -13684,7 +13740,7 @@
         <v>60</v>
       </c>
       <c r="AJ114" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="115">
@@ -13719,13 +13775,13 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="H115" t="n">
         <v>2.7</v>
       </c>
       <c r="I115" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J115" t="n">
         <v>1.16</v>
@@ -13758,19 +13814,19 @@
         <v>1.53</v>
       </c>
       <c r="T115" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="U115" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="V115" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W115" t="n">
         <v>23</v>
       </c>
       <c r="X115" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y115" t="n">
         <v>55</v>
@@ -13785,17 +13841,17 @@
         <v>21</v>
       </c>
       <c r="AC115" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD115" t="inlineStr"/>
       <c r="AE115" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AF115" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG115" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH115" t="n">
         <v>65</v>
@@ -13804,7 +13860,7 @@
         <v>50</v>
       </c>
       <c r="AJ115" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116">
@@ -13842,7 +13898,7 @@
         <v>1.8</v>
       </c>
       <c r="H116" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I116" t="n">
         <v>4.5</v>
@@ -13854,16 +13910,16 @@
         <v>10</v>
       </c>
       <c r="L116" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M116" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N116" t="n">
         <v>2</v>
       </c>
       <c r="O116" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P116" t="n">
         <v>1.4</v>
@@ -13878,7 +13934,7 @@
         <v>1.83</v>
       </c>
       <c r="T116" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U116" t="n">
         <v>8</v>
@@ -13896,10 +13952,10 @@
         <v>29</v>
       </c>
       <c r="Z116" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA116" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB116" t="n">
         <v>17</v>
@@ -14083,13 +14139,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H118" t="n">
         <v>3.8</v>
       </c>
       <c r="I118" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J118" t="n">
         <v>1.03</v>
@@ -14131,7 +14187,7 @@
         <v>9</v>
       </c>
       <c r="W118" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X118" t="n">
         <v>15</v>
@@ -14449,19 +14505,19 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="H121" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I121" t="n">
         <v>1.25</v>
       </c>
       <c r="J121" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K121" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L121" t="n">
         <v>1.17</v>
@@ -14482,13 +14538,13 @@
         <v>3.75</v>
       </c>
       <c r="R121" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S121" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T121" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U121" t="n">
         <v>51</v>
@@ -14506,7 +14562,7 @@
         <v>51</v>
       </c>
       <c r="Z121" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA121" t="n">
         <v>12</v>
@@ -14524,13 +14580,13 @@
         <v>8.5</v>
       </c>
       <c r="AF121" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG121" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH121" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI121" t="n">
         <v>11</v>
@@ -14571,13 +14627,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H122" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I122" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J122" t="n">
         <v>1.05</v>
@@ -14619,7 +14675,7 @@
         <v>11</v>
       </c>
       <c r="W122" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X122" t="n">
         <v>23</v>
@@ -14649,13 +14705,13 @@
         <v>11</v>
       </c>
       <c r="AG122" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH122" t="n">
         <v>21</v>
       </c>
       <c r="AI122" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ122" t="n">
         <v>26</v>
@@ -14699,16 +14755,16 @@
         <v>3.5</v>
       </c>
       <c r="I123" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J123" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K123" t="n">
         <v>10</v>
       </c>
       <c r="L123" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M123" t="n">
         <v>3.4</v>
@@ -14765,7 +14821,7 @@
         <v>251</v>
       </c>
       <c r="AE123" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF123" t="n">
         <v>15</v>
@@ -14824,13 +14880,13 @@
         <v>5.25</v>
       </c>
       <c r="J124" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K124" t="n">
         <v>11</v>
       </c>
       <c r="L124" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M124" t="n">
         <v>3.5</v>
@@ -14946,13 +15002,13 @@
         <v>4.5</v>
       </c>
       <c r="J125" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K125" t="n">
         <v>11</v>
       </c>
       <c r="L125" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M125" t="n">
         <v>3.5</v>
@@ -15068,13 +15124,13 @@
         <v>2.4</v>
       </c>
       <c r="J126" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K126" t="n">
         <v>15</v>
       </c>
       <c r="L126" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M126" t="n">
         <v>4.5</v>
@@ -15190,13 +15246,13 @@
         <v>2.3</v>
       </c>
       <c r="J127" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K127" t="n">
         <v>10</v>
       </c>
       <c r="L127" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M127" t="n">
         <v>3.4</v>
@@ -15312,13 +15368,13 @@
         <v>5</v>
       </c>
       <c r="J128" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K128" t="n">
         <v>13</v>
       </c>
       <c r="L128" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M128" t="n">
         <v>4</v>
@@ -15434,13 +15490,13 @@
         <v>3.5</v>
       </c>
       <c r="J129" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K129" t="n">
         <v>10</v>
       </c>
       <c r="L129" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M129" t="n">
         <v>3.5</v>
@@ -15547,13 +15603,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="H130" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I130" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="J130" t="n">
         <v>1.04</v>
@@ -15580,22 +15636,22 @@
         <v>3.25</v>
       </c>
       <c r="R130" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S130" t="n">
         <v>1.8</v>
       </c>
-      <c r="S130" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U130" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V130" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W130" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="X130" t="n">
         <v>41</v>
@@ -15610,31 +15666,31 @@
         <v>8.5</v>
       </c>
       <c r="AB130" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC130" t="n">
         <v>51</v>
       </c>
       <c r="AD130" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE130" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF130" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG130" t="n">
         <v>8.5</v>
       </c>
       <c r="AH130" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI130" t="n">
         <v>12</v>
       </c>
       <c r="AJ130" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131">
@@ -16523,31 +16579,31 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H138" t="n">
         <v>3.5</v>
       </c>
       <c r="I138" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J138" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K138" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L138" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M138" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N138" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O138" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P138" t="n">
         <v>1.3</v>
@@ -16776,28 +16832,28 @@
         <v>1.7</v>
       </c>
       <c r="J140" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K140" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L140" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M140" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N140" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O140" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="P140" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R140" t="n">
         <v>1.83</v>
@@ -16806,7 +16862,7 @@
         <v>1.83</v>
       </c>
       <c r="T140" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U140" t="n">
         <v>23</v>
@@ -16824,10 +16880,10 @@
         <v>41</v>
       </c>
       <c r="Z140" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA140" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB140" t="n">
         <v>17</v>
@@ -16839,10 +16895,10 @@
         <v>301</v>
       </c>
       <c r="AE140" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF140" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG140" t="n">
         <v>8.5</v>
@@ -16851,10 +16907,10 @@
         <v>13</v>
       </c>
       <c r="AI140" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ140" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="141">
@@ -18011,7 +18067,7 @@
         <v>2</v>
       </c>
       <c r="O150" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="P150" t="n">
         <v>1.4</v>
@@ -18234,32 +18290,32 @@
         <v>3</v>
       </c>
       <c r="H152" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I152" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M152" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="N152" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O152" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S152" t="n">
-        <v>2.29</v>
+        <v>2.26</v>
       </c>
       <c r="T152" t="n">
         <v>9.75</v>
@@ -18283,10 +18339,10 @@
         <v>13</v>
       </c>
       <c r="AA152" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB152" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC152" t="n">
         <v>37</v>
@@ -18295,7 +18351,7 @@
         <v>200</v>
       </c>
       <c r="AE152" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AF152" t="n">
         <v>9.25</v>
@@ -18304,10 +18360,10 @@
         <v>7.4</v>
       </c>
       <c r="AH152" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI152" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ152" t="n">
         <v>18</v>
@@ -18703,13 +18759,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="H156" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="I156" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -18717,72 +18773,72 @@
         <v>1.19</v>
       </c>
       <c r="M156" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="N156" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O156" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S156" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="T156" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="U156" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="V156" t="n">
         <v>8.25</v>
       </c>
       <c r="W156" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="X156" t="n">
         <v>10.75</v>
       </c>
       <c r="Y156" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z156" t="n">
         <v>13.5</v>
       </c>
       <c r="AA156" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AB156" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AC156" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD156" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE156" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF156" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>175</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ156" t="n">
         <v>60</v>
-      </c>
-      <c r="AG156" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH156" t="n">
-        <v>200</v>
-      </c>
-      <c r="AI156" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ156" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="157">
@@ -19179,13 +19235,13 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H162" t="n">
         <v>3.4</v>
       </c>
       <c r="I162" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J162" t="n">
         <v>1.04</v>
@@ -19221,7 +19277,7 @@
         <v>12</v>
       </c>
       <c r="U162" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V162" t="n">
         <v>11</v>
@@ -19257,7 +19313,7 @@
         <v>13</v>
       </c>
       <c r="AG162" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH162" t="n">
         <v>23</v>
@@ -19438,16 +19494,16 @@
         <v>11</v>
       </c>
       <c r="L164" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M164" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N164" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O164" t="n">
         <v>1.98</v>
-      </c>
-      <c r="O164" t="n">
-        <v>1.88</v>
       </c>
       <c r="P164" t="n">
         <v>1.4</v>
@@ -19572,7 +19628,7 @@
         <v>2.6</v>
       </c>
       <c r="P165" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q165" t="n">
         <v>3.75</v>
@@ -19694,7 +19750,7 @@
         <v>2.1</v>
       </c>
       <c r="P166" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q166" t="n">
         <v>3.25</v>
@@ -19816,7 +19872,7 @@
         <v>1.93</v>
       </c>
       <c r="P167" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q167" t="n">
         <v>3</v>
@@ -19938,7 +19994,7 @@
         <v>2.05</v>
       </c>
       <c r="P168" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q168" t="n">
         <v>3.25</v>
@@ -20060,7 +20116,7 @@
         <v>1.83</v>
       </c>
       <c r="P169" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q169" t="n">
         <v>2.75</v>
@@ -20182,7 +20238,7 @@
         <v>2.1</v>
       </c>
       <c r="P170" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q170" t="n">
         <v>3.25</v>
@@ -20304,7 +20360,7 @@
         <v>2.15</v>
       </c>
       <c r="P171" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q171" t="n">
         <v>3.4</v>
@@ -20399,13 +20455,13 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H172" t="n">
         <v>3.2</v>
       </c>
       <c r="I172" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J172" t="n">
         <v>1.07</v>
@@ -20471,7 +20527,7 @@
         <v>501</v>
       </c>
       <c r="AE172" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF172" t="n">
         <v>19</v>
@@ -20530,13 +20586,13 @@
         <v>1.91</v>
       </c>
       <c r="J173" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K173" t="n">
         <v>11</v>
       </c>
       <c r="L173" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M173" t="n">
         <v>3.75</v>
@@ -21086,10 +21142,10 @@
         <v>2.75</v>
       </c>
       <c r="J178" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K178" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L178" t="n">
         <v>1.2</v>
@@ -21336,16 +21392,16 @@
         <v>13</v>
       </c>
       <c r="L180" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M180" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N180" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O180" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P180" t="n">
         <v>1.33</v>
@@ -21690,16 +21746,16 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M183" t="n">
         <v>3.25</v>
       </c>
       <c r="N183" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O183" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
@@ -21734,7 +21790,7 @@
         <v>6.7</v>
       </c>
       <c r="AB183" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC183" t="n">
         <v>55</v>
@@ -21749,7 +21805,7 @@
         <v>9.75</v>
       </c>
       <c r="AG183" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH183" t="n">
         <v>17.5</v>
@@ -23016,16 +23072,16 @@
         <v>1.95</v>
       </c>
       <c r="H194" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I194" t="n">
         <v>4.2</v>
       </c>
       <c r="J194" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K194" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L194" t="n">
         <v>1.5</v>
@@ -23034,16 +23090,16 @@
         <v>2.5</v>
       </c>
       <c r="N194" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O194" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P194" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q194" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R194" t="n">
         <v>2.2</v>
@@ -23064,7 +23120,7 @@
         <v>17</v>
       </c>
       <c r="X194" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y194" t="n">
         <v>41</v>
@@ -23073,10 +23129,10 @@
         <v>6.5</v>
       </c>
       <c r="AA194" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB194" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC194" t="n">
         <v>81</v>
@@ -23094,7 +23150,7 @@
         <v>15</v>
       </c>
       <c r="AH194" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI194" t="n">
         <v>41</v>
@@ -23278,10 +23334,10 @@
         <v>3.75</v>
       </c>
       <c r="N196" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O196" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P196" t="n">
         <v>1.36</v>
@@ -23400,10 +23456,10 @@
         <v>2.63</v>
       </c>
       <c r="N197" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O197" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P197" t="n">
         <v>1.5</v>
@@ -23448,7 +23504,7 @@
         <v>67</v>
       </c>
       <c r="AD197" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE197" t="n">
         <v>8</v>
@@ -23632,10 +23688,10 @@
         <v>2.5</v>
       </c>
       <c r="J199" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K199" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L199" t="n">
         <v>1.53</v>
@@ -23757,7 +23813,7 @@
         <v>1.06</v>
       </c>
       <c r="K200" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L200" t="n">
         <v>1.3</v>
@@ -24132,10 +24188,10 @@
         <v>2.63</v>
       </c>
       <c r="N203" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O203" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P203" t="n">
         <v>1.53</v>
@@ -24245,7 +24301,7 @@
         <v>1.06</v>
       </c>
       <c r="K204" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L204" t="n">
         <v>1.33</v>
@@ -24355,46 +24411,46 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H205" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I205" t="n">
         <v>2.25</v>
       </c>
       <c r="J205" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K205" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L205" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M205" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N205" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O205" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="P205" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q205" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R205" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S205" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T205" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U205" t="n">
         <v>15</v>
@@ -24403,19 +24459,19 @@
         <v>11</v>
       </c>
       <c r="W205" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X205" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y205" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z205" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA205" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB205" t="n">
         <v>15</v>
@@ -24424,10 +24480,10 @@
         <v>51</v>
       </c>
       <c r="AD205" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE205" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF205" t="n">
         <v>11</v>
@@ -24442,7 +24498,7 @@
         <v>19</v>
       </c>
       <c r="AJ205" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="206">
@@ -24477,19 +24533,19 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H206" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I206" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J206" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K206" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L206" t="n">
         <v>1.22</v>
@@ -24504,10 +24560,10 @@
         <v>2.1</v>
       </c>
       <c r="P206" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q206" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R206" t="n">
         <v>1.8</v>
@@ -24516,19 +24572,19 @@
         <v>1.91</v>
       </c>
       <c r="T206" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U206" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V206" t="n">
         <v>8.5</v>
       </c>
       <c r="W206" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X206" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y206" t="n">
         <v>23</v>
@@ -24546,7 +24602,7 @@
         <v>51</v>
       </c>
       <c r="AD206" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE206" t="n">
         <v>15</v>
@@ -25931,13 +25987,13 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H223" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I223" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="J223" t="n">
         <v>1.03</v>
@@ -25973,19 +26029,19 @@
         <v>11</v>
       </c>
       <c r="U223" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V223" t="n">
         <v>9</v>
       </c>
       <c r="W223" t="n">
+        <v>17</v>
+      </c>
+      <c r="X223" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y223" t="n">
         <v>19</v>
-      </c>
-      <c r="X223" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y223" t="n">
-        <v>21</v>
       </c>
       <c r="Z223" t="n">
         <v>17</v>
@@ -26009,13 +26065,13 @@
         <v>21</v>
       </c>
       <c r="AG223" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH223" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI223" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ223" t="n">
         <v>26</v>
@@ -26428,22 +26484,22 @@
         <v>3</v>
       </c>
       <c r="J227" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K227" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L227" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M227" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N227" t="n">
         <v>2.4</v>
       </c>
       <c r="O227" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P227" t="n">
         <v>1.5</v>
@@ -26781,31 +26837,31 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H230" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I230" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J230" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K230" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L230" t="n">
         <v>1.22</v>
       </c>
       <c r="M230" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N230" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="O230" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="P230" t="n">
         <v>1.33</v>
@@ -26814,10 +26870,10 @@
         <v>3.25</v>
       </c>
       <c r="R230" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S230" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T230" t="n">
         <v>12</v>
@@ -26838,13 +26894,13 @@
         <v>29</v>
       </c>
       <c r="Z230" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA230" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB230" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC230" t="n">
         <v>41</v>
@@ -26912,13 +26968,13 @@
         <v>4</v>
       </c>
       <c r="J231" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K231" t="n">
         <v>10</v>
       </c>
       <c r="L231" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M231" t="n">
         <v>3.4</v>
@@ -26936,10 +26992,10 @@
         <v>2.75</v>
       </c>
       <c r="R231" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S231" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T231" t="n">
         <v>7</v>
@@ -27034,13 +27090,13 @@
         <v>2.7</v>
       </c>
       <c r="J232" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K232" t="n">
         <v>9.5</v>
       </c>
       <c r="L232" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M232" t="n">
         <v>3.25</v>
@@ -27058,10 +27114,10 @@
         <v>2.75</v>
       </c>
       <c r="R232" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S232" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T232" t="n">
         <v>8</v>
@@ -27156,13 +27212,13 @@
         <v>1.7</v>
       </c>
       <c r="J233" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K233" t="n">
         <v>10</v>
       </c>
       <c r="L233" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M233" t="n">
         <v>3.4</v>
@@ -27180,10 +27236,10 @@
         <v>2.75</v>
       </c>
       <c r="R233" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S233" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T233" t="n">
         <v>12</v>
@@ -27278,13 +27334,13 @@
         <v>3.2</v>
       </c>
       <c r="J234" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K234" t="n">
         <v>13</v>
       </c>
       <c r="L234" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M234" t="n">
         <v>3.75</v>
@@ -27302,7 +27358,7 @@
         <v>3</v>
       </c>
       <c r="R234" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S234" t="n">
         <v>2.05</v>
@@ -27400,13 +27456,13 @@
         <v>8.5</v>
       </c>
       <c r="J235" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K235" t="n">
         <v>17</v>
       </c>
       <c r="L235" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M235" t="n">
         <v>5</v>
@@ -27424,10 +27480,10 @@
         <v>3.75</v>
       </c>
       <c r="R235" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S235" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T235" t="n">
         <v>8.5</v>
@@ -27644,13 +27700,13 @@
         <v>3.9</v>
       </c>
       <c r="J237" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K237" t="n">
         <v>11</v>
       </c>
       <c r="L237" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M237" t="n">
         <v>3.75</v>
@@ -27668,7 +27724,7 @@
         <v>3</v>
       </c>
       <c r="R237" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S237" t="n">
         <v>2</v>
@@ -27766,13 +27822,13 @@
         <v>2.2</v>
       </c>
       <c r="J238" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K238" t="n">
         <v>11</v>
       </c>
       <c r="L238" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M238" t="n">
         <v>3.5</v>
@@ -27790,7 +27846,7 @@
         <v>3</v>
       </c>
       <c r="R238" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S238" t="n">
         <v>2</v>
@@ -28123,19 +28179,19 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H241" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I241" t="n">
         <v>5.25</v>
       </c>
       <c r="J241" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K241" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L241" t="n">
         <v>1.44</v>
@@ -28205,7 +28261,7 @@
         <v>51</v>
       </c>
       <c r="AI241" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ241" t="n">
         <v>51</v>
@@ -28866,10 +28922,10 @@
         <v>3.5</v>
       </c>
       <c r="N247" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="O247" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="P247" t="n">
         <v>1.36</v>
@@ -30612,16 +30668,16 @@
         <v>11</v>
       </c>
       <c r="L265" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M265" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N265" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O265" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P265" t="n">
         <v>1.36</v>
@@ -30963,13 +31019,13 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="H268" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="I268" t="n">
-        <v>3.9</v>
+        <v>4.45</v>
       </c>
       <c r="J268" t="n">
         <v>1.04</v>
@@ -30981,76 +31037,76 @@
         <v>1.23</v>
       </c>
       <c r="M268" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="N268" t="n">
         <v>1.7</v>
       </c>
       <c r="O268" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="P268" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="Q268" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="R268" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S268" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="T268" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="U268" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="V268" t="n">
         <v>8.25</v>
       </c>
       <c r="W268" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="X268" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y268" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z268" t="n">
         <v>8.25</v>
       </c>
       <c r="AA268" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AB268" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE268" t="n">
         <v>14</v>
       </c>
-      <c r="AC268" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD268" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE268" t="n">
-        <v>13</v>
-      </c>
       <c r="AF268" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AG268" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH268" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AI268" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ268" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="269">
@@ -31206,36 +31262,84 @@
           <t>Balestier Khalsa</t>
         </is>
       </c>
-      <c r="G270" t="inlineStr"/>
-      <c r="H270" t="inlineStr"/>
-      <c r="I270" t="inlineStr"/>
+      <c r="G270" t="n">
+        <v>11</v>
+      </c>
+      <c r="H270" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1.18</v>
+      </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
       <c r="M270" t="inlineStr"/>
-      <c r="N270" t="inlineStr"/>
-      <c r="O270" t="inlineStr"/>
+      <c r="N270" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O270" t="n">
+        <v>4</v>
+      </c>
       <c r="P270" t="inlineStr"/>
       <c r="Q270" t="inlineStr"/>
-      <c r="R270" t="inlineStr"/>
-      <c r="S270" t="inlineStr"/>
-      <c r="T270" t="inlineStr"/>
-      <c r="U270" t="inlineStr"/>
-      <c r="V270" t="inlineStr"/>
-      <c r="W270" t="inlineStr"/>
-      <c r="X270" t="inlineStr"/>
-      <c r="Y270" t="inlineStr"/>
-      <c r="Z270" t="inlineStr"/>
-      <c r="AA270" t="inlineStr"/>
-      <c r="AB270" t="inlineStr"/>
-      <c r="AC270" t="inlineStr"/>
-      <c r="AD270" t="inlineStr"/>
-      <c r="AE270" t="inlineStr"/>
-      <c r="AF270" t="inlineStr"/>
-      <c r="AG270" t="inlineStr"/>
-      <c r="AH270" t="inlineStr"/>
-      <c r="AI270" t="inlineStr"/>
-      <c r="AJ270" t="inlineStr"/>
+      <c r="R270" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S270" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T270" t="n">
+        <v>40</v>
+      </c>
+      <c r="U270" t="n">
+        <v>90</v>
+      </c>
+      <c r="V270" t="n">
+        <v>27</v>
+      </c>
+      <c r="W270" t="n">
+        <v>101</v>
+      </c>
+      <c r="X270" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -31513,7 +31617,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H273" t="n">
         <v>3.4</v>
@@ -31528,31 +31632,31 @@
         <v>9</v>
       </c>
       <c r="L273" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M273" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="N273" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O273" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P273" t="n">
         <v>1.35</v>
       </c>
       <c r="Q273" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R273" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S273" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="T273" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="U273" t="n">
         <v>21</v>
@@ -31564,10 +31668,10 @@
         <v>50</v>
       </c>
       <c r="X273" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y273" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z273" t="n">
         <v>9</v>
@@ -31576,31 +31680,31 @@
         <v>7.1</v>
       </c>
       <c r="AB273" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC273" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD273" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE273" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AF273" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG273" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH273" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI273" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ273" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="274">
@@ -31757,31 +31861,31 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3.3</v>
+        <v>2.87</v>
       </c>
       <c r="H275" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="I275" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="J275" t="n">
         <v>1.09</v>
       </c>
       <c r="K275" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="L275" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M275" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="N275" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O275" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P275" t="n">
         <v>1.4</v>
@@ -31796,28 +31900,28 @@
         <v>2</v>
       </c>
       <c r="T275" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="U275" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="V275" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W275" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="X275" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y275" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z275" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AA275" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB275" t="n">
         <v>12.5</v>
@@ -31829,22 +31933,22 @@
         <v>450</v>
       </c>
       <c r="AE275" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF275" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AG275" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH275" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI275" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ275" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="276">
@@ -32001,22 +32105,22 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H277" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I277" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J277" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K277" t="n">
         <v>11</v>
       </c>
       <c r="L277" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M277" t="n">
         <v>3.5</v>
@@ -32028,10 +32132,10 @@
         <v>1.9</v>
       </c>
       <c r="P277" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q277" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R277" t="n">
         <v>1.73</v>
@@ -32055,10 +32159,10 @@
         <v>19</v>
       </c>
       <c r="Y277" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z277" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA277" t="n">
         <v>6.5</v>
@@ -32132,13 +32236,13 @@
         <v>4.1</v>
       </c>
       <c r="J278" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K278" t="n">
         <v>10</v>
       </c>
       <c r="L278" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M278" t="n">
         <v>3.25</v>
@@ -32254,13 +32358,13 @@
         <v>3.1</v>
       </c>
       <c r="J279" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K279" t="n">
         <v>9</v>
       </c>
       <c r="L279" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M279" t="n">
         <v>3</v>
@@ -32376,13 +32480,13 @@
         <v>3.1</v>
       </c>
       <c r="J280" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K280" t="n">
         <v>9</v>
       </c>
       <c r="L280" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M280" t="n">
         <v>3</v>
@@ -32489,7 +32593,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H281" t="n">
         <v>2.88</v>
@@ -32504,10 +32608,10 @@
         <v>5.5</v>
       </c>
       <c r="L281" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M281" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N281" t="n">
         <v>3.1</v>
@@ -32522,10 +32626,10 @@
         <v>2.1</v>
       </c>
       <c r="R281" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S281" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T281" t="n">
         <v>5.5</v>
@@ -32534,7 +32638,7 @@
         <v>10</v>
       </c>
       <c r="V281" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W281" t="n">
         <v>26</v>
@@ -32543,7 +32647,7 @@
         <v>29</v>
       </c>
       <c r="Y281" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z281" t="n">
         <v>5.5</v>
@@ -32876,10 +32980,10 @@
         <v>2.2</v>
       </c>
       <c r="N284" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="O284" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P284" t="n">
         <v>1.67</v>
@@ -33001,7 +33105,7 @@
         <v>2.25</v>
       </c>
       <c r="O285" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P285" t="n">
         <v>1.5</v>
@@ -33120,10 +33224,10 @@
         <v>2.63</v>
       </c>
       <c r="N286" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="O286" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P286" t="n">
         <v>1.53</v>
@@ -33245,7 +33349,7 @@
         <v>2.25</v>
       </c>
       <c r="O287" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P287" t="n">
         <v>1.5</v>
@@ -33367,7 +33471,7 @@
         <v>2.5</v>
       </c>
       <c r="O288" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P288" t="n">
         <v>1.53</v>
@@ -33486,10 +33590,10 @@
         <v>3.25</v>
       </c>
       <c r="N289" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="O289" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P289" t="n">
         <v>1.4</v>
@@ -33608,10 +33712,10 @@
         <v>3.25</v>
       </c>
       <c r="N290" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="O290" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P290" t="n">
         <v>1.44</v>
@@ -33733,7 +33837,7 @@
         <v>2.5</v>
       </c>
       <c r="O291" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P291" t="n">
         <v>1.53</v>
@@ -33953,7 +34057,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H293" t="n">
         <v>3.2</v>
@@ -34022,7 +34126,7 @@
         <v>51</v>
       </c>
       <c r="AD293" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE293" t="n">
         <v>10</v>
@@ -34322,10 +34426,10 @@
         <v>2</v>
       </c>
       <c r="H296" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I296" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J296" t="n">
         <v>1.05</v>
@@ -34334,16 +34438,16 @@
         <v>11</v>
       </c>
       <c r="L296" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M296" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N296" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O296" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P296" t="n">
         <v>1.36</v>
@@ -34352,10 +34456,10 @@
         <v>3</v>
       </c>
       <c r="R296" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S296" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T296" t="n">
         <v>8</v>
@@ -34364,16 +34468,16 @@
         <v>10</v>
       </c>
       <c r="V296" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W296" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X296" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y296" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z296" t="n">
         <v>11</v>
@@ -34382,22 +34486,22 @@
         <v>6.5</v>
       </c>
       <c r="AB296" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC296" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD296" t="n">
         <v>201</v>
       </c>
       <c r="AE296" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF296" t="n">
         <v>19</v>
       </c>
       <c r="AG296" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH296" t="n">
         <v>41</v>
@@ -34441,13 +34545,13 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H297" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I297" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J297" t="n">
         <v>1.06</v>
@@ -34486,7 +34590,7 @@
         <v>12</v>
       </c>
       <c r="V297" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W297" t="n">
         <v>23</v>
@@ -34569,7 +34673,7 @@
         <v>3.6</v>
       </c>
       <c r="I298" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="J298" t="n">
         <v>1.04</v>
@@ -34584,10 +34688,10 @@
         <v>4</v>
       </c>
       <c r="N298" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O298" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P298" t="n">
         <v>1.33</v>
@@ -34605,7 +34709,7 @@
         <v>13</v>
       </c>
       <c r="U298" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V298" t="n">
         <v>13</v>
@@ -34626,7 +34730,7 @@
         <v>7</v>
       </c>
       <c r="AB298" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC298" t="n">
         <v>41</v>
@@ -34638,7 +34742,7 @@
         <v>8</v>
       </c>
       <c r="AF298" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG298" t="n">
         <v>8.5</v>
@@ -34647,7 +34751,7 @@
         <v>15</v>
       </c>
       <c r="AI298" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ298" t="n">
         <v>23</v>
@@ -34685,13 +34789,13 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H299" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I299" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J299" t="n">
         <v>1.05</v>
@@ -34706,10 +34810,10 @@
         <v>3.5</v>
       </c>
       <c r="N299" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O299" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P299" t="n">
         <v>1.4</v>
@@ -34724,31 +34828,31 @@
         <v>2</v>
       </c>
       <c r="T299" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U299" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V299" t="n">
         <v>9.5</v>
       </c>
       <c r="W299" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X299" t="n">
         <v>19</v>
       </c>
       <c r="Y299" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z299" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA299" t="n">
         <v>6.5</v>
       </c>
       <c r="AB299" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC299" t="n">
         <v>41</v>
@@ -35661,48 +35765,48 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H307" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I307" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M307" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="N307" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="O307" t="n">
-        <v>2.14</v>
+        <v>2.19</v>
       </c>
       <c r="P307" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="Q307" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="R307" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="S307" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="T307" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U307" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="V307" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W307" t="n">
         <v>101</v>
@@ -35714,13 +35818,13 @@
         <v>101</v>
       </c>
       <c r="Z307" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA307" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB307" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AC307" t="n">
         <v>101</v>
@@ -35729,22 +35833,22 @@
         <v>101</v>
       </c>
       <c r="AE307" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AF307" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AG307" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AH307" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AI307" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AJ307" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="308">
@@ -35779,39 +35883,39 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H308" t="n">
         <v>5.6</v>
       </c>
       <c r="I308" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M308" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="N308" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O308" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P308" t="n">
         <v>1.28</v>
       </c>
       <c r="Q308" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R308" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="S308" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="T308" t="n">
         <v>21</v>
@@ -35820,7 +35924,7 @@
         <v>70</v>
       </c>
       <c r="V308" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W308" t="n">
         <v>101</v>
@@ -35835,10 +35939,10 @@
         <v>12</v>
       </c>
       <c r="AA308" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AB308" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AC308" t="n">
         <v>101</v>
@@ -35847,22 +35951,22 @@
         <v>101</v>
       </c>
       <c r="AE308" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AF308" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AG308" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AH308" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AI308" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AJ308" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="309">
@@ -36225,7 +36329,7 @@
         <v>2.6</v>
       </c>
       <c r="O313" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P313" t="n">
         <v>1.57</v>
@@ -36323,13 +36427,13 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H314" t="n">
         <v>4.75</v>
       </c>
       <c r="I314" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J314" t="n">
         <v>1.03</v>
@@ -36344,7 +36448,7 @@
         <v>4.33</v>
       </c>
       <c r="N314" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O314" t="n">
         <v>2.2</v>
@@ -36356,28 +36460,28 @@
         <v>3.5</v>
       </c>
       <c r="R314" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S314" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T314" t="n">
         <v>7.5</v>
       </c>
       <c r="U314" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V314" t="n">
         <v>9</v>
       </c>
       <c r="W314" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X314" t="n">
         <v>11</v>
       </c>
       <c r="Y314" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z314" t="n">
         <v>13</v>
@@ -36389,10 +36493,10 @@
         <v>21</v>
       </c>
       <c r="AC314" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD314" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE314" t="n">
         <v>21</v>
@@ -36401,13 +36505,13 @@
         <v>41</v>
       </c>
       <c r="AG314" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH314" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI314" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ314" t="n">
         <v>51</v>
@@ -36469,7 +36573,7 @@
         <v>2.6</v>
       </c>
       <c r="O315" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P315" t="n">
         <v>1.57</v>
@@ -36588,7 +36692,7 @@
         <v>4.5</v>
       </c>
       <c r="N316" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="O316" t="n">
         <v>2.25</v>
@@ -36713,7 +36817,7 @@
         <v>2.05</v>
       </c>
       <c r="O317" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P317" t="n">
         <v>1.4</v>
@@ -36811,13 +36915,13 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H318" t="n">
         <v>3.3</v>
       </c>
       <c r="I318" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J318" t="n">
         <v>1.05</v>
@@ -36853,19 +36957,19 @@
         <v>9</v>
       </c>
       <c r="U318" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V318" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W318" t="n">
+        <v>23</v>
+      </c>
+      <c r="X318" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y318" t="n">
         <v>26</v>
-      </c>
-      <c r="X318" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y318" t="n">
-        <v>29</v>
       </c>
       <c r="Z318" t="n">
         <v>11</v>
@@ -36886,10 +36990,10 @@
         <v>9.5</v>
       </c>
       <c r="AF318" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG318" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH318" t="n">
         <v>29</v>
@@ -37076,10 +37180,10 @@
         <v>5</v>
       </c>
       <c r="N320" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O320" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P320" t="n">
         <v>1.29</v>
@@ -37130,13 +37234,13 @@
         <v>13</v>
       </c>
       <c r="AF320" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG320" t="n">
         <v>12</v>
       </c>
       <c r="AH320" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI320" t="n">
         <v>23</v>
@@ -37332,10 +37436,10 @@
         <v>2.75</v>
       </c>
       <c r="R322" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S322" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T322" t="n">
         <v>8.5</v>
@@ -37454,7 +37558,7 @@
         <v>3.25</v>
       </c>
       <c r="R323" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S323" t="n">
         <v>2.25</v>
@@ -37543,13 +37647,13 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H324" t="n">
         <v>3.6</v>
       </c>
       <c r="I324" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J324" t="n">
         <v>1.04</v>
@@ -37564,43 +37668,43 @@
         <v>4.33</v>
       </c>
       <c r="N324" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O324" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P324" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q324" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R324" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="S324" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T324" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U324" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V324" t="n">
         <v>8.5</v>
       </c>
       <c r="W324" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X324" t="n">
         <v>13</v>
       </c>
       <c r="Y324" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z324" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA324" t="n">
         <v>7</v>
@@ -37630,7 +37734,7 @@
         <v>34</v>
       </c>
       <c r="AJ324" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="325">
@@ -37698,7 +37802,7 @@
         <v>3.25</v>
       </c>
       <c r="R325" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S325" t="n">
         <v>2.05</v>
@@ -37820,10 +37924,10 @@
         <v>3.25</v>
       </c>
       <c r="R326" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S326" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T326" t="n">
         <v>7.5</v>
@@ -37942,7 +38046,7 @@
         <v>4</v>
       </c>
       <c r="R327" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S327" t="n">
         <v>2.75</v>
@@ -38031,19 +38135,19 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H328" t="n">
         <v>4.2</v>
       </c>
       <c r="I328" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J328" t="n">
         <v>1.04</v>
       </c>
       <c r="K328" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L328" t="n">
         <v>1.22</v>
@@ -38052,10 +38156,10 @@
         <v>4</v>
       </c>
       <c r="N328" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O328" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P328" t="n">
         <v>1.33</v>
@@ -38109,7 +38213,7 @@
         <v>34</v>
       </c>
       <c r="AG328" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH328" t="n">
         <v>67</v>
@@ -38397,25 +38501,25 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H331" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I331" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="J331" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K331" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="L331" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M331" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="N331" t="n">
         <v>1.93</v>
@@ -38424,19 +38528,19 @@
         <v>1.78</v>
       </c>
       <c r="P331" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q331" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="R331" t="n">
         <v>1.75</v>
       </c>
       <c r="S331" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T331" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U331" t="n">
         <v>11.5</v>
@@ -38451,13 +38555,13 @@
         <v>19.5</v>
       </c>
       <c r="Y331" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z331" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA331" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB331" t="n">
         <v>14</v>
@@ -38469,7 +38573,7 @@
         <v>500</v>
       </c>
       <c r="AE331" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF331" t="n">
         <v>14</v>
@@ -38481,7 +38585,7 @@
         <v>32</v>
       </c>
       <c r="AI331" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ331" t="n">
         <v>32</v>
@@ -38519,28 +38623,28 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="H332" t="n">
         <v>3.1</v>
       </c>
       <c r="I332" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J332" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K332" t="n">
         <v>6.3</v>
       </c>
       <c r="L332" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M332" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="N332" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="O332" t="n">
         <v>1.62</v>
@@ -38549,28 +38653,28 @@
         <v>1.5</v>
       </c>
       <c r="Q332" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R332" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S332" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="T332" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="U332" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V332" t="n">
         <v>9</v>
       </c>
       <c r="W332" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X332" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y332" t="n">
         <v>35</v>
@@ -38579,13 +38683,13 @@
         <v>6.3</v>
       </c>
       <c r="AA332" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB332" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC332" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD332" t="n">
         <v>800</v>
@@ -38594,19 +38698,19 @@
         <v>8.5</v>
       </c>
       <c r="AF332" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG332" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH332" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI332" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AJ332" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="333">
@@ -38641,19 +38745,19 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H333" t="n">
         <v>3.65</v>
       </c>
       <c r="I333" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="J333" t="n">
         <v>1.05</v>
       </c>
       <c r="K333" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="L333" t="n">
         <v>1.25</v>
@@ -38671,25 +38775,25 @@
         <v>1.37</v>
       </c>
       <c r="Q333" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="R333" t="n">
         <v>1.72</v>
       </c>
       <c r="S333" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T333" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="U333" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="V333" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W333" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X333" t="n">
         <v>13</v>
@@ -38698,37 +38802,37 @@
         <v>23</v>
       </c>
       <c r="Z333" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AA333" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB333" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC333" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD333" t="n">
         <v>450</v>
       </c>
       <c r="AE333" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF333" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG333" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH333" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI333" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ333" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="334">
@@ -39390,16 +39494,16 @@
         <v>2.45</v>
       </c>
       <c r="N339" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="O339" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P339" t="n">
         <v>1.5</v>
       </c>
       <c r="Q339" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="R339" t="n">
         <v>1.93</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-03.xlsx
@@ -686,7 +686,7 @@
         <v>2.1</v>
       </c>
       <c r="T2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U2" t="n">
         <v>10</v>
@@ -701,13 +701,13 @@
         <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
         <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB2" t="n">
         <v>15</v>
@@ -775,13 +775,13 @@
         <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" t="n">
         <v>1.29</v>
@@ -790,10 +790,10 @@
         <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="O3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -805,7 +805,7 @@
         <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -817,7 +817,7 @@
         <v>9.5</v>
       </c>
       <c r="W3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
@@ -826,10 +826,10 @@
         <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
@@ -844,7 +844,7 @@
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
         <v>21</v>
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
         <v>2.88</v>
@@ -912,10 +912,10 @@
         <v>4.33</v>
       </c>
       <c r="N4" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="O4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P4" t="n">
         <v>1.33</v>
@@ -924,7 +924,7 @@
         <v>3.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S4" t="n">
         <v>2.2</v>
@@ -933,13 +933,13 @@
         <v>11</v>
       </c>
       <c r="U4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V4" t="n">
         <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X4" t="n">
         <v>19</v>
@@ -1046,7 +1046,7 @@
         <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S5" t="n">
         <v>2</v>
@@ -1138,10 +1138,10 @@
         <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
         <v>1.02</v>
@@ -1156,10 +1156,10 @@
         <v>5.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="O6" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P6" t="n">
         <v>1.22</v>
@@ -1168,7 +1168,7 @@
         <v>4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S6" t="n">
         <v>2.75</v>
@@ -1180,13 +1180,13 @@
         <v>15</v>
       </c>
       <c r="V6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W6" t="n">
         <v>23</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
         <v>19</v>
@@ -1290,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S7" t="n">
         <v>2</v>
@@ -1394,16 +1394,16 @@
         <v>23</v>
       </c>
       <c r="L8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="M8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N8" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="O8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P8" t="n">
         <v>1.18</v>
@@ -1412,13 +1412,13 @@
         <v>4.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S8" t="n">
         <v>2.5</v>
       </c>
       <c r="T8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U8" t="n">
         <v>41</v>
@@ -1436,7 +1436,7 @@
         <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="n">
         <v>11</v>
@@ -1445,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="AC8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD8" t="n">
         <v>101</v>
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
@@ -1522,10 +1522,10 @@
         <v>5.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="O9" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P9" t="n">
         <v>1.22</v>
@@ -1534,7 +1534,7 @@
         <v>4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S9" t="n">
         <v>2.75</v>
@@ -1754,13 +1754,13 @@
         <v>2.6</v>
       </c>
       <c r="J11" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
@@ -1876,22 +1876,22 @@
         <v>2.45</v>
       </c>
       <c r="J12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K12" t="n">
         <v>13</v>
       </c>
       <c r="L12" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="M12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
         <v>1.33</v>
@@ -2001,10 +2001,10 @@
         <v>1.01</v>
       </c>
       <c r="K13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L13" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="M13" t="n">
         <v>8</v>
@@ -2114,22 +2114,22 @@
         <v>2.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K14" t="n">
         <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
         <v>2.3</v>
@@ -2159,10 +2159,10 @@
         <v>9.5</v>
       </c>
       <c r="W14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
         <v>34</v>
@@ -2236,13 +2236,13 @@
         <v>3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K15" t="n">
         <v>11</v>
@@ -2251,7 +2251,7 @@
         <v>1.25</v>
       </c>
       <c r="M15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
         <v>1.9</v>
@@ -2364,13 +2364,13 @@
         <v>1.53</v>
       </c>
       <c r="J16" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K16" t="n">
         <v>10</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
         <v>3.4</v>
@@ -2486,22 +2486,22 @@
         <v>8.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K17" t="n">
         <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="O17" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="P17" t="n">
         <v>1.33</v>
@@ -2513,7 +2513,7 @@
         <v>2.1</v>
       </c>
       <c r="S17" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T17" t="n">
         <v>6.5</v>
@@ -2608,13 +2608,13 @@
         <v>5.25</v>
       </c>
       <c r="J18" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K18" t="n">
         <v>15</v>
       </c>
       <c r="L18" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M18" t="n">
         <v>4.33</v>
@@ -2632,7 +2632,7 @@
         <v>3.4</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S18" t="n">
         <v>2</v>
@@ -2730,13 +2730,13 @@
         <v>1.53</v>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K19" t="n">
         <v>15</v>
       </c>
       <c r="L19" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
@@ -2754,10 +2754,10 @@
         <v>3.4</v>
       </c>
       <c r="R19" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S19" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -2852,13 +2852,13 @@
         <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K20" t="n">
         <v>13</v>
       </c>
       <c r="L20" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
@@ -2876,7 +2876,7 @@
         <v>3.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="n">
         <v>2.05</v>
@@ -2965,22 +2965,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="H21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J21" t="n">
         <v>1.01</v>
       </c>
       <c r="K21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L21" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="M21" t="n">
         <v>11</v>
@@ -2998,10 +2998,10 @@
         <v>6</v>
       </c>
       <c r="R21" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S21" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -3013,19 +3013,19 @@
         <v>13</v>
       </c>
       <c r="W21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X21" t="n">
         <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z21" t="n">
         <v>34</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB21" t="n">
         <v>29</v>
@@ -3034,22 +3034,22 @@
         <v>67</v>
       </c>
       <c r="AD21" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE21" t="n">
         <v>51</v>
       </c>
       <c r="AF21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH21" t="n">
         <v>351</v>
       </c>
       <c r="AI21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ21" t="n">
         <v>81</v>
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J22" t="n">
         <v>1.11</v>
@@ -3144,7 +3144,7 @@
         <v>41</v>
       </c>
       <c r="Z22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA22" t="n">
         <v>6</v>
@@ -3343,7 +3343,7 @@
         <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.33</v>
@@ -3465,7 +3465,7 @@
         <v>1.01</v>
       </c>
       <c r="K25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L25" t="n">
         <v>1.07</v>
@@ -3495,7 +3495,7 @@
         <v>41</v>
       </c>
       <c r="U25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="V25" t="n">
         <v>41</v>
@@ -3528,7 +3528,7 @@
         <v>15</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
         <v>11</v>
@@ -3700,10 +3700,10 @@
         <v>3.5</v>
       </c>
       <c r="H27" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="I27" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J27" t="n">
         <v>1.17</v>
@@ -3724,7 +3724,7 @@
         <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="Q27" t="n">
         <v>2.08</v>
@@ -3733,7 +3733,7 @@
         <v>2.5</v>
       </c>
       <c r="S27" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T27" t="n">
         <v>7</v>
@@ -3819,7 +3819,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
@@ -3855,7 +3855,7 @@
         <v>2.1</v>
       </c>
       <c r="S28" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T28" t="n">
         <v>6</v>
@@ -3941,13 +3941,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H29" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="I29" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J29" t="n">
         <v>1.13</v>
@@ -3977,7 +3977,7 @@
         <v>2.25</v>
       </c>
       <c r="S29" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T29" t="n">
         <v>5.5</v>
@@ -4063,19 +4063,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J30" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L30" t="n">
         <v>1.5</v>
@@ -4084,10 +4084,10 @@
         <v>2.5</v>
       </c>
       <c r="N30" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P30" t="n">
         <v>1.53</v>
@@ -4096,10 +4096,10 @@
         <v>2.38</v>
       </c>
       <c r="R30" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S30" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="T30" t="n">
         <v>5.5</v>
@@ -4123,25 +4123,25 @@
         <v>6.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB30" t="n">
         <v>19</v>
       </c>
       <c r="AC30" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD30" t="n">
         <v>101</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF30" t="n">
         <v>17</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
         <v>41</v>
@@ -4221,7 +4221,7 @@
         <v>2.5</v>
       </c>
       <c r="S31" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T31" t="n">
         <v>4.75</v>
@@ -4334,16 +4334,16 @@
         <v>1.3</v>
       </c>
       <c r="P32" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q32" t="n">
         <v>2.05</v>
       </c>
       <c r="R32" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="S32" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T32" t="n">
         <v>5</v>
@@ -4432,10 +4432,10 @@
         <v>3.3</v>
       </c>
       <c r="H33" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I33" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J33" t="n">
         <v>1.13</v>
@@ -4462,10 +4462,10 @@
         <v>2.2</v>
       </c>
       <c r="R33" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="S33" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T33" t="n">
         <v>7</v>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H35" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I35" t="n">
         <v>3.4</v>
@@ -4795,7 +4795,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="H36" t="n">
         <v>3.4</v>
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H37" t="n">
         <v>3.1</v>
@@ -5039,19 +5039,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H38" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I38" t="n">
         <v>3.9</v>
       </c>
       <c r="J38" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L38" t="n">
         <v>1.14</v>
@@ -5060,25 +5060,25 @@
         <v>5.5</v>
       </c>
       <c r="N38" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O38" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P38" t="n">
         <v>1.22</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S38" t="n">
         <v>2.5</v>
       </c>
       <c r="T38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U38" t="n">
         <v>11</v>
@@ -5090,7 +5090,7 @@
         <v>17</v>
       </c>
       <c r="X38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y38" t="n">
         <v>19</v>
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H39" t="n">
         <v>3.9</v>
@@ -5173,7 +5173,7 @@
         <v>1.03</v>
       </c>
       <c r="K39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L39" t="n">
         <v>1.17</v>
@@ -5188,16 +5188,16 @@
         <v>2.38</v>
       </c>
       <c r="P39" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q39" t="n">
         <v>3.5</v>
       </c>
       <c r="R39" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S39" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T39" t="n">
         <v>10</v>
@@ -5283,10 +5283,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H40" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I40" t="n">
         <v>1.75</v>
@@ -5295,7 +5295,7 @@
         <v>1.01</v>
       </c>
       <c r="K40" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L40" t="n">
         <v>1.08</v>
@@ -5304,16 +5304,16 @@
         <v>8</v>
       </c>
       <c r="N40" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="O40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P40" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
         <v>1.3</v>
@@ -5334,22 +5334,22 @@
         <v>41</v>
       </c>
       <c r="X40" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC40" t="n">
         <v>26</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>23</v>
       </c>
       <c r="AD40" t="n">
         <v>67</v>
@@ -5420,13 +5420,13 @@
         <v>13</v>
       </c>
       <c r="L41" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N41" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="O41" t="n">
         <v>2</v>
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="H42" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="I42" t="n">
         <v>1.57</v>
@@ -5767,90 +5767,90 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M44" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N44" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="O44" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P44" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="R44" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S44" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T44" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="U44" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="V44" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="W44" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y44" t="n">
         <v>40</v>
       </c>
       <c r="Z44" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB44" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC44" t="n">
         <v>90</v>
       </c>
       <c r="AD44" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE44" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AF44" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH44" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AJ44" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -6139,13 +6139,13 @@
         <v>3.2</v>
       </c>
       <c r="I49" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J49" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L49" t="n">
         <v>1.29</v>
@@ -6154,10 +6154,10 @@
         <v>3.5</v>
       </c>
       <c r="N49" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O49" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P49" t="n">
         <v>1.4</v>
@@ -6172,13 +6172,13 @@
         <v>2</v>
       </c>
       <c r="T49" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U49" t="n">
         <v>13</v>
       </c>
       <c r="V49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W49" t="n">
         <v>26</v>
@@ -6255,7 +6255,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H50" t="n">
         <v>3.6</v>
@@ -6270,16 +6270,16 @@
         <v>13</v>
       </c>
       <c r="L50" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N50" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="O50" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="P50" t="n">
         <v>1.33</v>
@@ -6377,7 +6377,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H51" t="n">
         <v>3.6</v>
@@ -6386,10 +6386,10 @@
         <v>3.7</v>
       </c>
       <c r="J51" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L51" t="n">
         <v>1.2</v>
@@ -6398,7 +6398,7 @@
         <v>4.33</v>
       </c>
       <c r="N51" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O51" t="n">
         <v>2.15</v>
@@ -6532,7 +6532,7 @@
         <v>3.4</v>
       </c>
       <c r="R52" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S52" t="n">
         <v>2.25</v>
@@ -6654,7 +6654,7 @@
         <v>5</v>
       </c>
       <c r="R53" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S53" t="n">
         <v>2.25</v>
@@ -6776,10 +6776,10 @@
         <v>5</v>
       </c>
       <c r="R54" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S54" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T54" t="n">
         <v>12</v>
@@ -6898,10 +6898,10 @@
         <v>2.75</v>
       </c>
       <c r="R55" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S55" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T55" t="n">
         <v>8</v>
@@ -7373,7 +7373,7 @@
         <v>2.05</v>
       </c>
       <c r="S59" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T59" t="n">
         <v>6</v>
@@ -7459,10 +7459,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H60" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I60" t="n">
         <v>3.2</v>
@@ -7492,10 +7492,10 @@
         <v>2.5</v>
       </c>
       <c r="R60" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S60" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T60" t="n">
         <v>7</v>
@@ -7617,7 +7617,7 @@
         <v>2.25</v>
       </c>
       <c r="S61" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T61" t="n">
         <v>5.5</v>
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I62" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J62" t="n">
         <v>1.07</v>
       </c>
       <c r="K62" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L62" t="n">
         <v>1.4</v>
@@ -7736,10 +7736,10 @@
         <v>2.63</v>
       </c>
       <c r="R62" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S62" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -7757,22 +7757,22 @@
         <v>19</v>
       </c>
       <c r="Y62" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z62" t="n">
         <v>8.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC62" t="n">
         <v>51</v>
       </c>
       <c r="AD62" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE62" t="n">
         <v>9</v>
@@ -7787,7 +7787,7 @@
         <v>34</v>
       </c>
       <c r="AI62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ62" t="n">
         <v>41</v>
@@ -8435,10 +8435,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H68" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I68" t="n">
         <v>1.73</v>
@@ -8447,7 +8447,7 @@
         <v>1.07</v>
       </c>
       <c r="K68" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L68" t="n">
         <v>1.4</v>
@@ -8474,7 +8474,7 @@
         <v>1.67</v>
       </c>
       <c r="T68" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U68" t="n">
         <v>21</v>
@@ -8492,7 +8492,7 @@
         <v>41</v>
       </c>
       <c r="Z68" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA68" t="n">
         <v>7.5</v>
@@ -8519,7 +8519,7 @@
         <v>13</v>
       </c>
       <c r="AI68" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ68" t="n">
         <v>34</v>
@@ -8793,90 +8793,90 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="H71" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I71" t="n">
-        <v>2.7</v>
+        <v>2.13</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="M71" t="n">
-        <v>2.6</v>
+        <v>3.15</v>
       </c>
       <c r="N71" t="n">
-        <v>2.33</v>
+        <v>1.96</v>
       </c>
       <c r="O71" t="n">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="P71" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="R71" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S71" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="T71" t="n">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
       <c r="U71" t="n">
+        <v>13</v>
+      </c>
+      <c r="V71" t="n">
         <v>9</v>
       </c>
-      <c r="V71" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="W71" t="n">
+        <v>35</v>
+      </c>
+      <c r="X71" t="n">
         <v>23</v>
       </c>
-      <c r="X71" t="n">
-        <v>21</v>
-      </c>
       <c r="Y71" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Z71" t="n">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA71" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AB71" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC71" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AD71" t="n">
         <v>101</v>
       </c>
       <c r="AE71" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AF71" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG71" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AH71" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AI71" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AJ71" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72">
@@ -8919,31 +8919,35 @@
       <c r="I72" t="n">
         <v>1.84</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K72" t="n">
+        <v>6</v>
+      </c>
       <c r="L72" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O72" t="n">
         <v>1.48</v>
-      </c>
-      <c r="M72" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="N72" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="O72" t="n">
-        <v>1.49</v>
       </c>
       <c r="P72" t="n">
         <v>1.55</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="R72" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="S72" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="T72" t="n">
         <v>7</v>
@@ -8958,19 +8962,19 @@
         <v>70</v>
       </c>
       <c r="X72" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Y72" t="n">
         <v>70</v>
       </c>
       <c r="Z72" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AA72" t="n">
         <v>5</v>
       </c>
       <c r="AB72" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC72" t="n">
         <v>101</v>
@@ -8991,7 +8995,7 @@
         <v>12</v>
       </c>
       <c r="AI72" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ72" t="n">
         <v>40</v>
@@ -9029,90 +9033,90 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="H73" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I73" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="M73" t="n">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="N73" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="O73" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P73" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="R73" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="S73" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="T73" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="U73" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V73" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="W73" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="X73" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y73" t="n">
         <v>32</v>
       </c>
       <c r="Z73" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AA73" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AB73" t="n">
         <v>13</v>
       </c>
       <c r="AC73" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD73" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE73" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AF73" t="n">
-        <v>8.75</v>
+        <v>7.7</v>
       </c>
       <c r="AG73" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AH73" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI73" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ73" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
@@ -9339,7 +9343,7 @@
         <v>1.07</v>
       </c>
       <c r="K76" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="L76" t="n">
         <v>1.33</v>
@@ -9354,7 +9358,7 @@
         <v>1.78</v>
       </c>
       <c r="P76" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q76" t="n">
         <v>2.65</v>
@@ -9372,19 +9376,19 @@
         <v>9</v>
       </c>
       <c r="V76" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W76" t="n">
         <v>16.5</v>
       </c>
       <c r="X76" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y76" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z76" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA76" t="n">
         <v>7</v>
@@ -9396,10 +9400,10 @@
         <v>90</v>
       </c>
       <c r="AD76" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE76" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF76" t="n">
         <v>24</v>
@@ -9414,7 +9418,7 @@
         <v>45</v>
       </c>
       <c r="AJ76" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77">
@@ -9702,13 +9706,13 @@
         <v>2.88</v>
       </c>
       <c r="J79" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K79" t="n">
         <v>11</v>
       </c>
       <c r="L79" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M79" t="n">
         <v>3.75</v>
@@ -9726,7 +9730,7 @@
         <v>3</v>
       </c>
       <c r="R79" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S79" t="n">
         <v>2.1</v>
@@ -9824,13 +9828,13 @@
         <v>5.5</v>
       </c>
       <c r="J80" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K80" t="n">
         <v>13</v>
       </c>
       <c r="L80" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M80" t="n">
         <v>3.75</v>
@@ -9848,10 +9852,10 @@
         <v>3.25</v>
       </c>
       <c r="R80" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S80" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T80" t="n">
         <v>7</v>
@@ -9946,13 +9950,13 @@
         <v>3.7</v>
       </c>
       <c r="J81" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K81" t="n">
         <v>9</v>
       </c>
       <c r="L81" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M81" t="n">
         <v>3.25</v>
@@ -9970,10 +9974,10 @@
         <v>2.62</v>
       </c>
       <c r="R81" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S81" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T81" t="n">
         <v>6.5</v>
@@ -10543,13 +10547,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H86" t="n">
         <v>3.1</v>
       </c>
       <c r="I86" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -10566,7 +10570,7 @@
         <v>1.57</v>
       </c>
       <c r="P86" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q86" t="n">
         <v>2.4</v>
@@ -10578,28 +10582,28 @@
         <v>1.72</v>
       </c>
       <c r="T86" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U86" t="n">
         <v>8.5</v>
       </c>
       <c r="V86" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W86" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="X86" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z86" t="n">
         <v>7.5</v>
       </c>
       <c r="AA86" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB86" t="n">
         <v>16.5</v>
@@ -10617,16 +10621,16 @@
         <v>21</v>
       </c>
       <c r="AG86" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH86" t="n">
         <v>65</v>
       </c>
       <c r="AI86" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ86" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87">
@@ -10661,10 +10665,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H87" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I87" t="n">
         <v>10.25</v>
@@ -10675,7 +10679,7 @@
         <v>1.24</v>
       </c>
       <c r="M87" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N87" t="n">
         <v>1.72</v>
@@ -10690,37 +10694,37 @@
         <v>2.55</v>
       </c>
       <c r="R87" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S87" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T87" t="n">
         <v>6</v>
       </c>
       <c r="U87" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="V87" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W87" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="X87" t="n">
         <v>11.75</v>
       </c>
       <c r="Y87" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z87" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA87" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB87" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC87" t="n">
         <v>150</v>
@@ -10729,16 +10733,16 @@
         <v>101</v>
       </c>
       <c r="AE87" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF87" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG87" t="n">
         <v>32</v>
       </c>
       <c r="AH87" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AI87" t="n">
         <v>150</v>
@@ -10906,10 +10910,10 @@
         <v>2.6</v>
       </c>
       <c r="J89" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K89" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L89" t="n">
         <v>1.53</v>
@@ -10924,7 +10928,7 @@
         <v>1.44</v>
       </c>
       <c r="P89" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Q89" t="n">
         <v>2.25</v>
@@ -11043,10 +11047,10 @@
         <v>2.6</v>
       </c>
       <c r="O90" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P90" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Q90" t="n">
         <v>2.25</v>
@@ -11055,7 +11059,7 @@
         <v>2.2</v>
       </c>
       <c r="S90" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T90" t="n">
         <v>6</v>
@@ -11165,19 +11169,19 @@
         <v>2.25</v>
       </c>
       <c r="O91" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P91" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R91" t="n">
         <v>2.1</v>
       </c>
       <c r="S91" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T91" t="n">
         <v>6</v>
@@ -11263,13 +11267,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="H92" t="n">
         <v>2.85</v>
       </c>
       <c r="I92" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J92" t="n">
         <v>1.11</v>
@@ -11296,16 +11300,16 @@
         <v>2.1</v>
       </c>
       <c r="R92" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S92" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T92" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="U92" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="V92" t="n">
         <v>9.5</v>
@@ -11335,10 +11339,10 @@
         <v>101</v>
       </c>
       <c r="AE92" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AF92" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG92" t="n">
         <v>12.5</v>
@@ -11409,19 +11413,19 @@
         <v>2.1</v>
       </c>
       <c r="O93" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P93" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R93" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S93" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T93" t="n">
         <v>6.5</v>
@@ -11534,13 +11538,13 @@
         <v>1.85</v>
       </c>
       <c r="P94" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q94" t="n">
         <v>2.75</v>
       </c>
       <c r="R94" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S94" t="n">
         <v>2</v>
@@ -11653,19 +11657,19 @@
         <v>2.05</v>
       </c>
       <c r="O95" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P95" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q95" t="n">
         <v>2.75</v>
       </c>
       <c r="R95" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S95" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T95" t="n">
         <v>6.5</v>
@@ -11751,19 +11755,19 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H96" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I96" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J96" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K96" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L96" t="n">
         <v>1.33</v>
@@ -11772,28 +11776,28 @@
         <v>3.25</v>
       </c>
       <c r="N96" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="O96" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P96" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R96" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S96" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T96" t="n">
         <v>9.5</v>
       </c>
       <c r="U96" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V96" t="n">
         <v>12</v>
@@ -11802,10 +11806,10 @@
         <v>34</v>
       </c>
       <c r="X96" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y96" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z96" t="n">
         <v>8.5</v>
@@ -11826,7 +11830,7 @@
         <v>7.5</v>
       </c>
       <c r="AF96" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG96" t="n">
         <v>9.5</v>
@@ -11882,10 +11886,10 @@
         <v>2.6</v>
       </c>
       <c r="J97" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K97" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L97" t="n">
         <v>1.33</v>
@@ -11897,7 +11901,7 @@
         <v>2.05</v>
       </c>
       <c r="O97" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P97" t="n">
         <v>1.4</v>
@@ -11906,10 +11910,10 @@
         <v>2.75</v>
       </c>
       <c r="R97" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S97" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T97" t="n">
         <v>9</v>
@@ -11998,28 +12002,28 @@
         <v>1.36</v>
       </c>
       <c r="H98" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J98" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="K98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L98" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M98" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N98" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O98" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P98" t="n">
         <v>1.44</v>
@@ -12028,61 +12032,61 @@
         <v>2.63</v>
       </c>
       <c r="R98" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="S98" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="T98" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U98" t="n">
         <v>5</v>
       </c>
-      <c r="U98" t="n">
-        <v>5.5</v>
-      </c>
       <c r="V98" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W98" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X98" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y98" t="n">
         <v>41</v>
       </c>
       <c r="Z98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA98" t="n">
         <v>9</v>
       </c>
       <c r="AB98" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC98" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD98" t="n">
         <v>101</v>
       </c>
       <c r="AE98" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF98" t="n">
         <v>41</v>
       </c>
       <c r="AG98" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH98" t="n">
+        <v>126</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ98" t="n">
         <v>101</v>
-      </c>
-      <c r="AI98" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ98" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="99">
@@ -12126,13 +12130,13 @@
         <v>6.25</v>
       </c>
       <c r="J99" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K99" t="n">
         <v>11</v>
       </c>
       <c r="L99" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M99" t="n">
         <v>3.75</v>
@@ -12153,7 +12157,7 @@
         <v>2</v>
       </c>
       <c r="S99" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T99" t="n">
         <v>6.5</v>
@@ -12353,19 +12357,19 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H101" t="n">
         <v>3.6</v>
       </c>
       <c r="I101" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J101" t="n">
         <v>1.04</v>
       </c>
       <c r="K101" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L101" t="n">
         <v>1.25</v>
@@ -12374,19 +12378,19 @@
         <v>3.75</v>
       </c>
       <c r="N101" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="O101" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="P101" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q101" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R101" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S101" t="n">
         <v>2</v>
@@ -12419,13 +12423,13 @@
         <v>15</v>
       </c>
       <c r="AC101" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD101" t="n">
         <v>201</v>
       </c>
       <c r="AE101" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF101" t="n">
         <v>21</v>
@@ -12437,7 +12441,7 @@
         <v>41</v>
       </c>
       <c r="AI101" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ101" t="n">
         <v>34</v>
@@ -12496,10 +12500,10 @@
         <v>3.4</v>
       </c>
       <c r="N102" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="O102" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="P102" t="n">
         <v>1.4</v>
@@ -12508,10 +12512,10 @@
         <v>2.75</v>
       </c>
       <c r="R102" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S102" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -12618,10 +12622,10 @@
         <v>3.75</v>
       </c>
       <c r="N103" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="O103" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="P103" t="n">
         <v>1.36</v>
@@ -12630,10 +12634,10 @@
         <v>3</v>
       </c>
       <c r="R103" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S103" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -12740,7 +12744,7 @@
         <v>4.5</v>
       </c>
       <c r="N104" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O104" t="n">
         <v>2.3</v>
@@ -12752,7 +12756,7 @@
         <v>3.5</v>
       </c>
       <c r="R104" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S104" t="n">
         <v>2.1</v>
@@ -12984,7 +12988,7 @@
         <v>3.75</v>
       </c>
       <c r="N106" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="O106" t="n">
         <v>2</v>
@@ -13106,7 +13110,7 @@
         <v>5</v>
       </c>
       <c r="N107" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O107" t="n">
         <v>2.4</v>
@@ -13210,46 +13214,46 @@
         <v>2.9</v>
       </c>
       <c r="H108" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I108" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J108" t="n">
         <v>1.06</v>
       </c>
       <c r="K108" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L108" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M108" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N108" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O108" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="P108" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R108" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S108" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T108" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U108" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V108" t="n">
         <v>11</v>
@@ -13258,16 +13262,16 @@
         <v>29</v>
       </c>
       <c r="X108" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y108" t="n">
         <v>34</v>
       </c>
       <c r="Z108" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA108" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB108" t="n">
         <v>15</v>
@@ -13276,25 +13280,25 @@
         <v>51</v>
       </c>
       <c r="AD108" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AE108" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF108" t="n">
         <v>11</v>
       </c>
       <c r="AG108" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH108" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI108" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ108" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109">
@@ -13329,13 +13333,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I109" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J109" t="n">
         <v>1.04</v>
@@ -13344,19 +13348,19 @@
         <v>13</v>
       </c>
       <c r="L109" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M109" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N109" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O109" t="n">
         <v>2.1</v>
       </c>
       <c r="P109" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q109" t="n">
         <v>3.4</v>
@@ -13371,7 +13375,7 @@
         <v>8.5</v>
       </c>
       <c r="U109" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V109" t="n">
         <v>8.5</v>
@@ -13389,7 +13393,7 @@
         <v>13</v>
       </c>
       <c r="AA109" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB109" t="n">
         <v>13</v>
@@ -13401,19 +13405,19 @@
         <v>151</v>
       </c>
       <c r="AE109" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF109" t="n">
         <v>23</v>
       </c>
       <c r="AG109" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH109" t="n">
         <v>41</v>
       </c>
       <c r="AI109" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ109" t="n">
         <v>34</v>
@@ -13451,7 +13455,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H110" t="n">
         <v>4.1</v>
@@ -13460,10 +13464,10 @@
         <v>7</v>
       </c>
       <c r="J110" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K110" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L110" t="n">
         <v>1.25</v>
@@ -13478,7 +13482,7 @@
         <v>1.95</v>
       </c>
       <c r="P110" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q110" t="n">
         <v>3</v>
@@ -13508,7 +13512,7 @@
         <v>29</v>
       </c>
       <c r="Z110" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA110" t="n">
         <v>8</v>
@@ -13523,13 +13527,13 @@
         <v>351</v>
       </c>
       <c r="AE110" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF110" t="n">
         <v>34</v>
       </c>
       <c r="AG110" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH110" t="n">
         <v>67</v>
@@ -13582,10 +13586,10 @@
         <v>2.7</v>
       </c>
       <c r="J111" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K111" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L111" t="n">
         <v>1.33</v>
@@ -13600,7 +13604,7 @@
         <v>1.75</v>
       </c>
       <c r="P111" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q111" t="n">
         <v>2.75</v>
@@ -13695,7 +13699,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H112" t="n">
         <v>3.25</v>
@@ -13719,7 +13723,7 @@
         <v>2.1</v>
       </c>
       <c r="O112" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P112" t="n">
         <v>1.44</v>
@@ -13817,27 +13821,27 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="H113" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="I113" t="n">
-        <v>9.25</v>
+        <v>11.5</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="M113" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="N113" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="O113" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="P113" t="n">
         <v>1.39</v>
@@ -13846,61 +13850,61 @@
         <v>2.57</v>
       </c>
       <c r="R113" t="n">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="S113" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="T113" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="U113" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="V113" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="W113" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X113" t="n">
         <v>12.5</v>
       </c>
       <c r="Y113" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z113" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AA113" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AB113" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AC113" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AD113" t="n">
         <v>101</v>
       </c>
       <c r="AE113" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AF113" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AG113" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AH113" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="AI113" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AJ113" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114">
@@ -13935,31 +13939,31 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H114" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="I114" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="J114" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K114" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="L114" t="n">
         <v>1.7</v>
       </c>
       <c r="M114" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="N114" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O114" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P114" t="n">
         <v>1.7</v>
@@ -13968,61 +13972,61 @@
         <v>2.05</v>
       </c>
       <c r="R114" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="S114" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T114" t="n">
         <v>4.8</v>
       </c>
       <c r="U114" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="V114" t="n">
         <v>9.75</v>
       </c>
       <c r="W114" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X114" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y114" t="n">
         <v>55</v>
       </c>
       <c r="Z114" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="AA114" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB114" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC114" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AD114" t="n">
         <v>101</v>
       </c>
       <c r="AE114" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AF114" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG114" t="n">
         <v>16.5</v>
       </c>
       <c r="AH114" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI114" t="n">
         <v>70</v>
       </c>
       <c r="AJ114" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115">
@@ -14177,13 +14181,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
         <v>3.5</v>
       </c>
       <c r="I116" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J116" t="n">
         <v>1.06</v>
@@ -14219,7 +14223,7 @@
         <v>7.5</v>
       </c>
       <c r="U116" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V116" t="n">
         <v>8.5</v>
@@ -14299,13 +14303,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="H117" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I117" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J117" t="n">
         <v>1.06</v>
@@ -14314,16 +14318,16 @@
         <v>10</v>
       </c>
       <c r="L117" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M117" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N117" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O117" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P117" t="n">
         <v>1.4</v>
@@ -14332,13 +14336,13 @@
         <v>2.75</v>
       </c>
       <c r="R117" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S117" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T117" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U117" t="n">
         <v>7</v>
@@ -14347,7 +14351,7 @@
         <v>8.5</v>
       </c>
       <c r="W117" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X117" t="n">
         <v>13</v>
@@ -14359,19 +14363,19 @@
         <v>9.5</v>
       </c>
       <c r="AA117" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB117" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC117" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD117" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE117" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF117" t="n">
         <v>29</v>
@@ -14380,10 +14384,10 @@
         <v>19</v>
       </c>
       <c r="AH117" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI117" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ117" t="n">
         <v>51</v>
@@ -14427,7 +14431,7 @@
         <v>3.8</v>
       </c>
       <c r="I118" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J118" t="n">
         <v>1.03</v>
@@ -14454,10 +14458,10 @@
         <v>3.5</v>
       </c>
       <c r="R118" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S118" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T118" t="n">
         <v>11</v>
@@ -14680,10 +14684,10 @@
         <v>15</v>
       </c>
       <c r="L120" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M120" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N120" t="n">
         <v>1.57</v>
@@ -14793,7 +14797,7 @@
         <v>6.25</v>
       </c>
       <c r="I121" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="J121" t="n">
         <v>1.02</v>
@@ -14820,31 +14824,31 @@
         <v>3.75</v>
       </c>
       <c r="R121" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S121" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T121" t="n">
         <v>23</v>
       </c>
       <c r="U121" t="n">
+        <v>41</v>
+      </c>
+      <c r="V121" t="n">
+        <v>23</v>
+      </c>
+      <c r="W121" t="n">
+        <v>101</v>
+      </c>
+      <c r="X121" t="n">
         <v>51</v>
-      </c>
-      <c r="V121" t="n">
-        <v>26</v>
-      </c>
-      <c r="W121" t="n">
-        <v>126</v>
-      </c>
-      <c r="X121" t="n">
-        <v>67</v>
       </c>
       <c r="Y121" t="n">
         <v>51</v>
       </c>
       <c r="Z121" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA121" t="n">
         <v>12</v>
@@ -15037,7 +15041,7 @@
         <v>3.5</v>
       </c>
       <c r="I123" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J123" t="n">
         <v>1.06</v>
@@ -15070,13 +15074,13 @@
         <v>1.91</v>
       </c>
       <c r="T123" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U123" t="n">
         <v>11</v>
       </c>
       <c r="V123" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W123" t="n">
         <v>21</v>
@@ -15103,7 +15107,7 @@
         <v>251</v>
       </c>
       <c r="AE123" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF123" t="n">
         <v>15</v>
@@ -15115,7 +15119,7 @@
         <v>34</v>
       </c>
       <c r="AI123" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ123" t="n">
         <v>34</v>
@@ -15153,7 +15157,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H124" t="n">
         <v>4.1</v>
@@ -15186,10 +15190,10 @@
         <v>3</v>
       </c>
       <c r="R124" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S124" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T124" t="n">
         <v>6.5</v>
@@ -15275,7 +15279,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H125" t="n">
         <v>4</v>
@@ -15308,10 +15312,10 @@
         <v>3</v>
       </c>
       <c r="R125" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S125" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T125" t="n">
         <v>6.5</v>
@@ -15430,10 +15434,10 @@
         <v>3.5</v>
       </c>
       <c r="R126" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S126" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T126" t="n">
         <v>12</v>
@@ -15540,10 +15544,10 @@
         <v>3.4</v>
       </c>
       <c r="N127" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O127" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P127" t="n">
         <v>1.4</v>
@@ -15552,10 +15556,10 @@
         <v>2.75</v>
       </c>
       <c r="R127" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S127" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T127" t="n">
         <v>9</v>
@@ -15641,7 +15645,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H128" t="n">
         <v>4</v>
@@ -15662,10 +15666,10 @@
         <v>4</v>
       </c>
       <c r="N128" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="O128" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="P128" t="n">
         <v>1.3</v>
@@ -15674,7 +15678,7 @@
         <v>3.4</v>
       </c>
       <c r="R128" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S128" t="n">
         <v>2</v>
@@ -15701,13 +15705,13 @@
         <v>13</v>
       </c>
       <c r="AA128" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB128" t="n">
         <v>15</v>
       </c>
       <c r="AC128" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD128" t="n">
         <v>201</v>
@@ -15763,7 +15767,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="H129" t="n">
         <v>3.4</v>
@@ -15891,7 +15895,7 @@
         <v>4.5</v>
       </c>
       <c r="I130" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="J130" t="n">
         <v>1.03</v>
@@ -15906,10 +15910,10 @@
         <v>4.33</v>
       </c>
       <c r="N130" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="O130" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P130" t="n">
         <v>1.3</v>
@@ -16028,10 +16032,10 @@
         <v>3.5</v>
       </c>
       <c r="N131" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O131" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P131" t="n">
         <v>1.36</v>
@@ -16040,10 +16044,10 @@
         <v>3</v>
       </c>
       <c r="R131" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S131" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T131" t="n">
         <v>6.5</v>
@@ -16150,7 +16154,7 @@
         <v>4.33</v>
       </c>
       <c r="N132" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O132" t="n">
         <v>2.15</v>
@@ -16162,7 +16166,7 @@
         <v>3.4</v>
       </c>
       <c r="R132" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S132" t="n">
         <v>2.1</v>
@@ -16254,7 +16258,7 @@
         <v>2.82</v>
       </c>
       <c r="H133" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I133" t="n">
         <v>2.4</v>
@@ -16266,16 +16270,16 @@
         <v>10</v>
       </c>
       <c r="L133" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M133" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N133" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O133" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P133" t="n">
         <v>1.4</v>
@@ -16284,7 +16288,7 @@
         <v>2.75</v>
       </c>
       <c r="R133" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S133" t="n">
         <v>2</v>
@@ -16305,10 +16309,10 @@
         <v>23</v>
       </c>
       <c r="Y133" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z133" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA133" t="n">
         <v>6</v>
@@ -16335,7 +16339,7 @@
         <v>23</v>
       </c>
       <c r="AI133" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ133" t="n">
         <v>29</v>
@@ -16385,7 +16389,7 @@
         <v>1.04</v>
       </c>
       <c r="K134" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L134" t="n">
         <v>1.22</v>
@@ -16394,7 +16398,7 @@
         <v>4</v>
       </c>
       <c r="N134" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O134" t="n">
         <v>2.05</v>
@@ -16406,7 +16410,7 @@
         <v>3.25</v>
       </c>
       <c r="R134" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S134" t="n">
         <v>2.1</v>
@@ -16504,10 +16508,10 @@
         <v>2.7</v>
       </c>
       <c r="J135" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K135" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L135" t="n">
         <v>1.4</v>
@@ -16519,7 +16523,7 @@
         <v>2.3</v>
       </c>
       <c r="O135" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P135" t="n">
         <v>1.5</v>
@@ -16531,7 +16535,7 @@
         <v>2</v>
       </c>
       <c r="S135" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T135" t="n">
         <v>7</v>
@@ -16638,7 +16642,7 @@
         <v>5.5</v>
       </c>
       <c r="N136" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O136" t="n">
         <v>2.4</v>
@@ -16650,7 +16654,7 @@
         <v>3.75</v>
       </c>
       <c r="R136" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S136" t="n">
         <v>2.25</v>
@@ -16739,22 +16743,22 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="H137" t="n">
         <v>3.7</v>
       </c>
       <c r="I137" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J137" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K137" t="n">
         <v>17</v>
       </c>
       <c r="L137" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M137" t="n">
         <v>5</v>
@@ -16867,16 +16871,16 @@
         <v>3.4</v>
       </c>
       <c r="I138" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J138" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K138" t="n">
         <v>15</v>
       </c>
       <c r="L138" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M138" t="n">
         <v>4.5</v>
@@ -16992,22 +16996,22 @@
         <v>3.2</v>
       </c>
       <c r="J139" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K139" t="n">
         <v>9</v>
       </c>
       <c r="L139" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M139" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N139" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O139" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P139" t="n">
         <v>1.44</v>
@@ -17114,13 +17118,13 @@
         <v>1.7</v>
       </c>
       <c r="J140" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K140" t="n">
         <v>11</v>
       </c>
       <c r="L140" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M140" t="n">
         <v>3.5</v>
@@ -17227,31 +17231,31 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H141" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I141" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J141" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K141" t="n">
         <v>10</v>
       </c>
       <c r="L141" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M141" t="n">
         <v>3.75</v>
       </c>
       <c r="N141" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O141" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P141" t="n">
         <v>1.36</v>
@@ -17275,10 +17279,10 @@
         <v>8.5</v>
       </c>
       <c r="W141" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X141" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y141" t="n">
         <v>29</v>
@@ -17287,25 +17291,25 @@
         <v>10</v>
       </c>
       <c r="AA141" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB141" t="n">
         <v>19</v>
       </c>
       <c r="AC141" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD141" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE141" t="n">
         <v>17</v>
       </c>
       <c r="AF141" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG141" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH141" t="n">
         <v>81</v>
@@ -17358,13 +17362,13 @@
         <v>3.8</v>
       </c>
       <c r="J142" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K142" t="n">
         <v>15</v>
       </c>
       <c r="L142" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M142" t="n">
         <v>4.5</v>
@@ -17477,7 +17481,7 @@
         <v>4.1</v>
       </c>
       <c r="I143" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="J143" t="n">
         <v>1.03</v>
@@ -17492,7 +17496,7 @@
         <v>5</v>
       </c>
       <c r="N143" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="O143" t="n">
         <v>2.35</v>
@@ -17593,7 +17597,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="H144" t="n">
         <v>3.3</v>
@@ -17629,7 +17633,7 @@
         <v>2.1</v>
       </c>
       <c r="S144" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T144" t="n">
         <v>5.5</v>
@@ -17721,7 +17725,7 @@
         <v>3.5</v>
       </c>
       <c r="I145" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="J145" t="n">
         <v>1.05</v>
@@ -17748,10 +17752,10 @@
         <v>2.75</v>
       </c>
       <c r="R145" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S145" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T145" t="n">
         <v>12</v>
@@ -17837,13 +17841,13 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="H146" t="n">
         <v>3.2</v>
       </c>
       <c r="I146" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J146" t="n">
         <v>1.07</v>
@@ -17870,10 +17874,10 @@
         <v>2.63</v>
       </c>
       <c r="R146" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S146" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T146" t="n">
         <v>8</v>
@@ -17959,13 +17963,13 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H147" t="n">
         <v>3.6</v>
       </c>
       <c r="I147" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J147" t="n">
         <v>1.04</v>
@@ -17980,10 +17984,10 @@
         <v>3.75</v>
       </c>
       <c r="N147" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O147" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P147" t="n">
         <v>1.36</v>
@@ -17992,7 +17996,7 @@
         <v>3</v>
       </c>
       <c r="R147" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S147" t="n">
         <v>2.1</v>
@@ -18081,19 +18085,19 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H148" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I148" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="J148" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K148" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L148" t="n">
         <v>1.29</v>
@@ -18102,10 +18106,10 @@
         <v>3.5</v>
       </c>
       <c r="N148" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O148" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P148" t="n">
         <v>1.36</v>
@@ -18114,10 +18118,10 @@
         <v>3</v>
       </c>
       <c r="R148" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S148" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T148" t="n">
         <v>13</v>
@@ -18126,7 +18130,7 @@
         <v>26</v>
       </c>
       <c r="V148" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W148" t="n">
         <v>51</v>
@@ -18138,19 +18142,19 @@
         <v>41</v>
       </c>
       <c r="Z148" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA148" t="n">
         <v>7</v>
       </c>
       <c r="AB148" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC148" t="n">
         <v>51</v>
       </c>
       <c r="AD148" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE148" t="n">
         <v>7</v>
@@ -18203,13 +18207,13 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>3.4</v>
       </c>
       <c r="I149" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="J149" t="n">
         <v>1.04</v>
@@ -18236,7 +18240,7 @@
         <v>3.4</v>
       </c>
       <c r="R149" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S149" t="n">
         <v>2.25</v>
@@ -18325,13 +18329,13 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="H150" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I150" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J150" t="n">
         <v>1.06</v>
@@ -18358,10 +18362,10 @@
         <v>2.75</v>
       </c>
       <c r="R150" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S150" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T150" t="n">
         <v>6.5</v>
@@ -18797,7 +18801,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H154" t="n">
         <v>4</v>
@@ -18806,34 +18810,34 @@
         <v>5.5</v>
       </c>
       <c r="J154" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K154" t="n">
         <v>13</v>
       </c>
       <c r="L154" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M154" t="n">
         <v>4</v>
       </c>
       <c r="N154" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="O154" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="P154" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q154" t="n">
         <v>3.25</v>
       </c>
       <c r="R154" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S154" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T154" t="n">
         <v>7.5</v>
@@ -18928,13 +18932,13 @@
         <v>3</v>
       </c>
       <c r="J155" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K155" t="n">
         <v>13</v>
       </c>
       <c r="L155" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M155" t="n">
         <v>3.75</v>
@@ -18946,13 +18950,13 @@
         <v>2.03</v>
       </c>
       <c r="P155" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q155" t="n">
         <v>3.25</v>
       </c>
       <c r="R155" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S155" t="n">
         <v>2.1</v>
@@ -19041,13 +19045,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H156" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="I156" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -19055,27 +19059,27 @@
         <v>1.19</v>
       </c>
       <c r="M156" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="N156" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="O156" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S156" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T156" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="U156" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="V156" t="n">
         <v>8.25</v>
@@ -19084,16 +19088,16 @@
         <v>9</v>
       </c>
       <c r="X156" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y156" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z156" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA156" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB156" t="n">
         <v>18.5</v>
@@ -19108,16 +19112,16 @@
         <v>22</v>
       </c>
       <c r="AF156" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG156" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH156" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI156" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ156" t="n">
         <v>65</v>
@@ -19158,7 +19162,7 @@
         <v>2.18</v>
       </c>
       <c r="H157" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I157" t="n">
         <v>2.7</v>
@@ -19172,21 +19176,21 @@
         <v>5.6</v>
       </c>
       <c r="N157" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="O157" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S157" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="T157" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="U157" t="n">
         <v>15.5</v>
@@ -19195,7 +19199,7 @@
         <v>9.5</v>
       </c>
       <c r="W157" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X157" t="n">
         <v>15</v>
@@ -19204,28 +19208,28 @@
         <v>17.5</v>
       </c>
       <c r="Z157" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA157" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB157" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC157" t="n">
         <v>29</v>
       </c>
       <c r="AD157" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AE157" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AF157" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG157" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH157" t="n">
         <v>35</v>
@@ -19234,7 +19238,7 @@
         <v>19</v>
       </c>
       <c r="AJ157" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158">
@@ -19383,23 +19387,23 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H159" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I159" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O159" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="P159" t="n">
         <v>1.4</v>
@@ -19410,55 +19414,55 @@
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="U159" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V159" t="n">
         <v>8.5</v>
       </c>
       <c r="W159" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X159" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y159" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z159" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AA159" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AB159" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AC159" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD159" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE159" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF159" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AG159" t="n">
         <v>7.7</v>
       </c>
       <c r="AH159" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI159" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ159" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160">
@@ -19493,90 +19497,90 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="H160" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I160" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="M160" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N160" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="O160" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P160" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="Q160" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="R160" t="n">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="S160" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="T160" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="U160" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V160" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W160" t="n">
         <v>65</v>
       </c>
       <c r="X160" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y160" t="n">
         <v>45</v>
       </c>
-      <c r="Y160" t="n">
-        <v>50</v>
-      </c>
       <c r="Z160" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA160" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AB160" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC160" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD160" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="AE160" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="AF160" t="n">
         <v>6</v>
       </c>
       <c r="AG160" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AH160" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AI160" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ160" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161">
@@ -19611,21 +19615,21 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H161" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="I161" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M161" t="n">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="N161" t="n">
         <v>2.22</v>
@@ -19634,25 +19638,25 @@
         <v>1.52</v>
       </c>
       <c r="P161" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q161" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="R161" t="n">
-        <v>2.09</v>
+        <v>2.16</v>
       </c>
       <c r="S161" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="T161" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="U161" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V161" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W161" t="n">
         <v>45</v>
@@ -19664,37 +19668,37 @@
         <v>40</v>
       </c>
       <c r="Z161" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AA161" t="n">
         <v>5.1</v>
       </c>
       <c r="AB161" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC161" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AD161" t="n">
         <v>450</v>
       </c>
       <c r="AE161" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="AF161" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AG161" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AH161" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI161" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AJ161" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="162">
@@ -19762,10 +19766,10 @@
         <v>3.4</v>
       </c>
       <c r="R162" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S162" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T162" t="n">
         <v>12</v>
@@ -19851,7 +19855,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="H163" t="n">
         <v>3.6</v>
@@ -19884,7 +19888,7 @@
         <v>4</v>
       </c>
       <c r="R163" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S163" t="n">
         <v>2.75</v>
@@ -19994,10 +19998,10 @@
         <v>3.75</v>
       </c>
       <c r="N164" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O164" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P164" t="n">
         <v>1.36</v>
@@ -20006,7 +20010,7 @@
         <v>3</v>
       </c>
       <c r="R164" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S164" t="n">
         <v>2.1</v>
@@ -20095,7 +20099,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="H165" t="n">
         <v>5.75</v>
@@ -20116,7 +20120,7 @@
         <v>5.5</v>
       </c>
       <c r="N165" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O165" t="n">
         <v>2.6</v>
@@ -20128,10 +20132,10 @@
         <v>3.75</v>
       </c>
       <c r="R165" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S165" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T165" t="n">
         <v>9</v>
@@ -20360,10 +20364,10 @@
         <v>3.5</v>
       </c>
       <c r="N167" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O167" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="P167" t="n">
         <v>1.36</v>
@@ -20604,10 +20608,10 @@
         <v>3.4</v>
       </c>
       <c r="N169" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="O169" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="P169" t="n">
         <v>1.4</v>
@@ -20726,7 +20730,7 @@
         <v>4.33</v>
       </c>
       <c r="N170" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O170" t="n">
         <v>2.1</v>
@@ -20848,7 +20852,7 @@
         <v>4.33</v>
       </c>
       <c r="N171" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O171" t="n">
         <v>2.1</v>
@@ -21193,13 +21197,13 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H174" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="I174" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
@@ -21207,7 +21211,7 @@
         <v>1.18</v>
       </c>
       <c r="M174" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="N174" t="n">
         <v>1.53</v>
@@ -21218,19 +21222,19 @@
       <c r="P174" t="inlineStr"/>
       <c r="Q174" t="inlineStr"/>
       <c r="R174" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S174" t="n">
         <v>1.77</v>
       </c>
       <c r="T174" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="U174" t="n">
         <v>5.7</v>
       </c>
       <c r="V174" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="W174" t="n">
         <v>6.8</v>
@@ -21242,7 +21246,7 @@
         <v>21</v>
       </c>
       <c r="Z174" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA174" t="n">
         <v>8.75</v>
@@ -21257,16 +21261,16 @@
         <v>450</v>
       </c>
       <c r="AE174" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF174" t="n">
         <v>45</v>
       </c>
       <c r="AG174" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH174" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI174" t="n">
         <v>70</v>
@@ -21425,10 +21429,10 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H176" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="I176" t="n">
         <v>3.15</v>
@@ -21440,55 +21444,55 @@
         <v>5.2</v>
       </c>
       <c r="L176" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="M176" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="N176" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O176" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P176" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q176" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R176" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="S176" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="T176" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="U176" t="n">
         <v>7.6</v>
       </c>
       <c r="V176" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W176" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="X176" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y176" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z176" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AA176" t="n">
         <v>5.2</v>
       </c>
       <c r="AB176" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC176" t="n">
         <v>120</v>
@@ -21497,22 +21501,22 @@
         <v>101</v>
       </c>
       <c r="AE176" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AF176" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AG176" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH176" t="n">
         <v>32</v>
       </c>
       <c r="AI176" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ176" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="177">
@@ -21547,21 +21551,25 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="H177" t="n">
-        <v>2.85</v>
+        <v>2.67</v>
       </c>
       <c r="I177" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>3.55</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K177" t="n">
+        <v>5.8</v>
+      </c>
       <c r="L177" t="n">
         <v>1.47</v>
       </c>
       <c r="M177" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="N177" t="n">
         <v>2.35</v>
@@ -21570,46 +21578,46 @@
         <v>1.47</v>
       </c>
       <c r="P177" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q177" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R177" t="n">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="S177" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="T177" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="U177" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V177" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="W177" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X177" t="n">
         <v>16.5</v>
       </c>
-      <c r="X177" t="n">
-        <v>17</v>
-      </c>
       <c r="Y177" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z177" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AA177" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="AB177" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC177" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD177" t="n">
         <v>350</v>
@@ -21618,16 +21626,16 @@
         <v>7</v>
       </c>
       <c r="AF177" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG177" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH177" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI177" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ177" t="n">
         <v>37</v>
@@ -21680,16 +21688,16 @@
         <v>15</v>
       </c>
       <c r="L178" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M178" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N178" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O178" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P178" t="n">
         <v>1.3</v>
@@ -21808,10 +21816,10 @@
         <v>5</v>
       </c>
       <c r="N179" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O179" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P179" t="n">
         <v>1.29</v>
@@ -21909,13 +21917,13 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H180" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I180" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J180" t="n">
         <v>1.04</v>
@@ -21930,10 +21938,10 @@
         <v>4</v>
       </c>
       <c r="N180" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O180" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P180" t="n">
         <v>1.33</v>
@@ -21966,7 +21974,7 @@
         <v>23</v>
       </c>
       <c r="Z180" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA180" t="n">
         <v>8</v>
@@ -22031,13 +22039,13 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H181" t="n">
         <v>3.25</v>
       </c>
       <c r="I181" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
@@ -22048,7 +22056,7 @@
         <v>3.05</v>
       </c>
       <c r="N181" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="O181" t="n">
         <v>1.78</v>
@@ -22057,7 +22065,7 @@
         <v>1.4</v>
       </c>
       <c r="Q181" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R181" t="n">
         <v>1.65</v>
@@ -22066,55 +22074,55 @@
         <v>1.98</v>
       </c>
       <c r="T181" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="U181" t="n">
         <v>18.5</v>
       </c>
       <c r="V181" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="W181" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X181" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y181" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Z181" t="n">
         <v>9.75</v>
       </c>
       <c r="AA181" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB181" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC181" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD181" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE181" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AF181" t="n">
         <v>10.25</v>
       </c>
       <c r="AG181" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH181" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI181" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ181" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="182">
@@ -22149,13 +22157,13 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="H182" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I182" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -22166,70 +22174,70 @@
         <v>3.1</v>
       </c>
       <c r="N182" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O182" t="n">
         <v>1.8</v>
       </c>
-      <c r="O182" t="n">
-        <v>1.82</v>
-      </c>
       <c r="P182" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q182" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="R182" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S182" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="T182" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U182" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="V182" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="W182" t="n">
+        <v>45</v>
+      </c>
+      <c r="X182" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB182" t="n">
         <v>13</v>
       </c>
-      <c r="W182" t="n">
-        <v>65</v>
-      </c>
-      <c r="X182" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y182" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z182" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AA182" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB182" t="n">
-        <v>14</v>
-      </c>
       <c r="AC182" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AD182" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AE182" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AF182" t="n">
-        <v>8.75</v>
+        <v>10.75</v>
       </c>
       <c r="AG182" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH182" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AI182" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AJ182" t="n">
         <v>25</v>
@@ -22393,7 +22401,7 @@
         <v>1.06</v>
       </c>
       <c r="K184" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L184" t="n">
         <v>1.3</v>
@@ -22524,10 +22532,10 @@
         <v>3.25</v>
       </c>
       <c r="N185" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O185" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P185" t="n">
         <v>1.44</v>
@@ -23000,22 +23008,22 @@
         <v>4.5</v>
       </c>
       <c r="J189" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K189" t="n">
         <v>8</v>
       </c>
       <c r="L189" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M189" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N189" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O189" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P189" t="n">
         <v>1.5</v>
@@ -23122,13 +23130,13 @@
         <v>3.4</v>
       </c>
       <c r="J190" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K190" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L190" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M190" t="n">
         <v>3</v>
@@ -23235,13 +23243,13 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H191" t="n">
         <v>2.9</v>
       </c>
       <c r="I191" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J191" t="n">
         <v>1.1</v>
@@ -23277,7 +23285,7 @@
         <v>6.5</v>
       </c>
       <c r="U191" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V191" t="n">
         <v>10</v>
@@ -23307,10 +23315,10 @@
         <v>501</v>
       </c>
       <c r="AE191" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF191" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG191" t="n">
         <v>12</v>
@@ -23363,13 +23371,13 @@
         <v>3.2</v>
       </c>
       <c r="I192" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J192" t="n">
         <v>1.07</v>
       </c>
       <c r="K192" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L192" t="n">
         <v>1.33</v>
@@ -23429,7 +23437,7 @@
         <v>301</v>
       </c>
       <c r="AE192" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF192" t="n">
         <v>17</v>
@@ -23438,7 +23446,7 @@
         <v>12</v>
       </c>
       <c r="AH192" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI192" t="n">
         <v>29</v>
@@ -23500,10 +23508,10 @@
         <v>2.63</v>
       </c>
       <c r="N193" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O193" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P193" t="n">
         <v>1.53</v>
@@ -23601,31 +23609,31 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H194" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I194" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J194" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K194" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L194" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M194" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N194" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O194" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P194" t="n">
         <v>1.57</v>
@@ -23634,10 +23642,10 @@
         <v>2.25</v>
       </c>
       <c r="R194" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S194" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T194" t="n">
         <v>5.5</v>
@@ -23661,7 +23669,7 @@
         <v>6.5</v>
       </c>
       <c r="AA194" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB194" t="n">
         <v>21</v>
@@ -23673,7 +23681,7 @@
         <v>501</v>
       </c>
       <c r="AE194" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF194" t="n">
         <v>19</v>
@@ -23682,7 +23690,7 @@
         <v>15</v>
       </c>
       <c r="AH194" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI194" t="n">
         <v>41</v>
@@ -23744,10 +23752,10 @@
         <v>2.75</v>
       </c>
       <c r="N195" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O195" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P195" t="n">
         <v>1.5</v>
@@ -23967,28 +23975,28 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I197" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J197" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K197" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L197" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M197" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N197" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O197" t="n">
         <v>1.57</v>
@@ -24000,22 +24008,22 @@
         <v>2.5</v>
       </c>
       <c r="R197" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S197" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T197" t="n">
         <v>7</v>
       </c>
       <c r="U197" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V197" t="n">
         <v>10</v>
       </c>
       <c r="W197" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X197" t="n">
         <v>21</v>
@@ -24024,7 +24032,7 @@
         <v>34</v>
       </c>
       <c r="Z197" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA197" t="n">
         <v>6</v>
@@ -24039,7 +24047,7 @@
         <v>900</v>
       </c>
       <c r="AE197" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF197" t="n">
         <v>15</v>
@@ -24089,19 +24097,19 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H198" t="n">
         <v>3.1</v>
       </c>
       <c r="I198" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J198" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K198" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L198" t="n">
         <v>1.44</v>
@@ -24113,7 +24121,7 @@
         <v>2.5</v>
       </c>
       <c r="O198" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P198" t="n">
         <v>1.53</v>
@@ -24131,7 +24139,7 @@
         <v>6</v>
       </c>
       <c r="U198" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V198" t="n">
         <v>9.5</v>
@@ -24146,7 +24154,7 @@
         <v>41</v>
       </c>
       <c r="Z198" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA198" t="n">
         <v>6</v>
@@ -24173,10 +24181,10 @@
         <v>41</v>
       </c>
       <c r="AI198" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ198" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="199">
@@ -24211,19 +24219,19 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H199" t="n">
         <v>2.9</v>
       </c>
       <c r="I199" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J199" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K199" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L199" t="n">
         <v>1.53</v>
@@ -24235,7 +24243,7 @@
         <v>2.7</v>
       </c>
       <c r="O199" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P199" t="n">
         <v>1.57</v>
@@ -24262,7 +24270,7 @@
         <v>34</v>
       </c>
       <c r="X199" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y199" t="n">
         <v>41</v>
@@ -24286,13 +24294,13 @@
         <v>6</v>
       </c>
       <c r="AF199" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG199" t="n">
         <v>11</v>
       </c>
       <c r="AH199" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI199" t="n">
         <v>26</v>
@@ -24333,19 +24341,19 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H200" t="n">
         <v>3.3</v>
       </c>
       <c r="I200" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J200" t="n">
         <v>1.06</v>
       </c>
       <c r="K200" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L200" t="n">
         <v>1.3</v>
@@ -24354,10 +24362,10 @@
         <v>3.4</v>
       </c>
       <c r="N200" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O200" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P200" t="n">
         <v>1.4</v>
@@ -24455,13 +24463,13 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H201" t="n">
         <v>3.5</v>
       </c>
       <c r="I201" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J201" t="n">
         <v>1.06</v>
@@ -24479,7 +24487,7 @@
         <v>2.1</v>
       </c>
       <c r="O201" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P201" t="n">
         <v>1.44</v>
@@ -24488,19 +24496,19 @@
         <v>2.63</v>
       </c>
       <c r="R201" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S201" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T201" t="n">
         <v>7</v>
       </c>
       <c r="U201" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V201" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W201" t="n">
         <v>19</v>
@@ -24527,7 +24535,7 @@
         <v>351</v>
       </c>
       <c r="AE201" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF201" t="n">
         <v>15</v>
@@ -24542,7 +24550,7 @@
         <v>29</v>
       </c>
       <c r="AJ201" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="202">
@@ -24592,16 +24600,16 @@
         <v>13</v>
       </c>
       <c r="L202" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M202" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N202" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O202" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P202" t="n">
         <v>1.33</v>
@@ -24610,7 +24618,7 @@
         <v>3.25</v>
       </c>
       <c r="R202" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S202" t="n">
         <v>2.2</v>
@@ -24714,10 +24722,10 @@
         <v>7</v>
       </c>
       <c r="L203" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M203" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N203" t="n">
         <v>2.5</v>
@@ -24735,7 +24743,7 @@
         <v>2</v>
       </c>
       <c r="S203" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T203" t="n">
         <v>6.5</v>
@@ -24821,7 +24829,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H204" t="n">
         <v>3.5</v>
@@ -24854,10 +24862,10 @@
         <v>2.75</v>
       </c>
       <c r="R204" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S204" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="T204" t="n">
         <v>6.5</v>
@@ -24902,7 +24910,7 @@
         <v>15</v>
       </c>
       <c r="AH204" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI204" t="n">
         <v>41</v>
@@ -24943,13 +24951,13 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H205" t="n">
         <v>3.5</v>
       </c>
       <c r="I205" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J205" t="n">
         <v>1.06</v>
@@ -24958,10 +24966,10 @@
         <v>10</v>
       </c>
       <c r="L205" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M205" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N205" t="n">
         <v>2.05</v>
@@ -24976,10 +24984,10 @@
         <v>2.75</v>
       </c>
       <c r="R205" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S205" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T205" t="n">
         <v>9</v>
@@ -24991,10 +24999,10 @@
         <v>11</v>
       </c>
       <c r="W205" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X205" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y205" t="n">
         <v>34</v>
@@ -25065,13 +25073,13 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H206" t="n">
         <v>4.1</v>
       </c>
       <c r="I206" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J206" t="n">
         <v>1.03</v>
@@ -25086,10 +25094,10 @@
         <v>4.33</v>
       </c>
       <c r="N206" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="O206" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P206" t="n">
         <v>1.3</v>
@@ -25098,7 +25106,7 @@
         <v>3.4</v>
       </c>
       <c r="R206" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S206" t="n">
         <v>2</v>
@@ -25187,13 +25195,13 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H207" t="n">
         <v>3.5</v>
       </c>
       <c r="I207" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
@@ -25204,10 +25212,10 @@
         <v>3.05</v>
       </c>
       <c r="N207" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="O207" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P207" t="n">
         <v>1.38</v>
@@ -25219,58 +25227,58 @@
         <v>1.99</v>
       </c>
       <c r="S207" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="T207" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="U207" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V207" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W207" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="X207" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Y207" t="n">
         <v>45</v>
       </c>
       <c r="Z207" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA207" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB207" t="n">
         <v>14.5</v>
       </c>
       <c r="AC207" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD207" t="n">
         <v>500</v>
       </c>
       <c r="AE207" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AF207" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AG207" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AH207" t="n">
         <v>9.75</v>
       </c>
       <c r="AI207" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ207" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208">
@@ -25308,10 +25316,10 @@
         <v>2.12</v>
       </c>
       <c r="H208" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I208" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -25331,49 +25339,49 @@
         <v>1.47</v>
       </c>
       <c r="Q208" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R208" t="n">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="S208" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="T208" t="n">
         <v>5.1</v>
       </c>
       <c r="U208" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="V208" t="n">
         <v>7.6</v>
-      </c>
-      <c r="V208" t="n">
-        <v>7.8</v>
       </c>
       <c r="W208" t="n">
         <v>16</v>
       </c>
       <c r="X208" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y208" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z208" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA208" t="n">
         <v>5.1</v>
       </c>
       <c r="AB208" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC208" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD208" t="n">
         <v>101</v>
       </c>
       <c r="AE208" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AF208" t="n">
         <v>13</v>
@@ -25382,7 +25390,7 @@
         <v>10.25</v>
       </c>
       <c r="AH208" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI208" t="n">
         <v>29</v>
@@ -26662,28 +26670,28 @@
         <v>2.3</v>
       </c>
       <c r="J220" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K220" t="n">
         <v>15</v>
       </c>
       <c r="L220" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M220" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N220" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O220" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P220" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q220" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R220" t="n">
         <v>1.57</v>
@@ -26710,7 +26718,7 @@
         <v>23</v>
       </c>
       <c r="Z220" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA220" t="n">
         <v>7.5</v>
@@ -26722,10 +26730,10 @@
         <v>41</v>
       </c>
       <c r="AD220" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE220" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF220" t="n">
         <v>13</v>
@@ -26740,7 +26748,7 @@
         <v>17</v>
       </c>
       <c r="AJ220" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="221">
@@ -26784,13 +26792,13 @@
         <v>6</v>
       </c>
       <c r="J221" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K221" t="n">
         <v>15</v>
       </c>
       <c r="L221" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M221" t="n">
         <v>4.33</v>
@@ -26897,49 +26905,49 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H222" t="n">
         <v>5</v>
       </c>
       <c r="I222" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J222" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K222" t="n">
         <v>15</v>
       </c>
       <c r="L222" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="M222" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N222" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O222" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P222" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q222" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R222" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S222" t="n">
         <v>1.91</v>
       </c>
-      <c r="S222" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T222" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U222" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V222" t="n">
         <v>8.5</v>
@@ -26951,31 +26959,31 @@
         <v>12</v>
       </c>
       <c r="Y222" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z222" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA222" t="n">
         <v>9.5</v>
       </c>
       <c r="AB222" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC222" t="n">
         <v>51</v>
       </c>
       <c r="AD222" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE222" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF222" t="n">
         <v>34</v>
       </c>
       <c r="AG222" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH222" t="n">
         <v>67</v>
@@ -27019,22 +27027,22 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H223" t="n">
         <v>3.75</v>
       </c>
       <c r="I223" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J223" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K223" t="n">
         <v>17</v>
       </c>
       <c r="L223" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M223" t="n">
         <v>5.5</v>
@@ -27067,7 +27075,7 @@
         <v>9</v>
       </c>
       <c r="W223" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X223" t="n">
         <v>13</v>
@@ -27091,7 +27099,7 @@
         <v>101</v>
       </c>
       <c r="AE223" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF223" t="n">
         <v>21</v>
@@ -27103,7 +27111,7 @@
         <v>41</v>
       </c>
       <c r="AI223" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ223" t="n">
         <v>26</v>
@@ -27150,13 +27158,13 @@
         <v>1.91</v>
       </c>
       <c r="J224" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K224" t="n">
         <v>17</v>
       </c>
       <c r="L224" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M224" t="n">
         <v>5</v>
@@ -27272,13 +27280,13 @@
         <v>4.5</v>
       </c>
       <c r="J225" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K225" t="n">
         <v>13</v>
       </c>
       <c r="L225" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M225" t="n">
         <v>4</v>
@@ -27394,13 +27402,13 @@
         <v>3.8</v>
       </c>
       <c r="J226" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K226" t="n">
         <v>17</v>
       </c>
       <c r="L226" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M226" t="n">
         <v>5</v>
@@ -27869,13 +27877,13 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H230" t="n">
         <v>3</v>
       </c>
       <c r="I230" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J230" t="n">
         <v>1.06</v>
@@ -27896,10 +27904,10 @@
         <v>1.88</v>
       </c>
       <c r="P230" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q230" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R230" t="n">
         <v>1.67</v>
@@ -27920,13 +27928,13 @@
         <v>34</v>
       </c>
       <c r="X230" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y230" t="n">
         <v>34</v>
       </c>
       <c r="Z230" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA230" t="n">
         <v>6</v>
@@ -27941,10 +27949,10 @@
         <v>151</v>
       </c>
       <c r="AE230" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF230" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG230" t="n">
         <v>9.5</v>
@@ -27997,7 +28005,7 @@
         <v>3.2</v>
       </c>
       <c r="I231" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J231" t="n">
         <v>1.06</v>
@@ -28006,16 +28014,16 @@
         <v>10</v>
       </c>
       <c r="L231" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M231" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N231" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O231" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P231" t="n">
         <v>1.4</v>
@@ -28024,16 +28032,16 @@
         <v>2.75</v>
       </c>
       <c r="R231" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S231" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T231" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U231" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V231" t="n">
         <v>9</v>
@@ -28063,7 +28071,7 @@
         <v>251</v>
       </c>
       <c r="AE231" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF231" t="n">
         <v>19</v>
@@ -28369,7 +28377,7 @@
         <v>1.04</v>
       </c>
       <c r="K234" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L234" t="n">
         <v>1.25</v>
@@ -28378,10 +28386,10 @@
         <v>3.75</v>
       </c>
       <c r="N234" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O234" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P234" t="n">
         <v>1.33</v>
@@ -28607,25 +28615,25 @@
         <v>3.4</v>
       </c>
       <c r="I236" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J236" t="n">
         <v>1.06</v>
       </c>
       <c r="K236" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="L236" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M236" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="N236" t="n">
         <v>2.05</v>
       </c>
       <c r="O236" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P236" t="n">
         <v>1.42</v>
@@ -28634,13 +28642,13 @@
         <v>2.67</v>
       </c>
       <c r="R236" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S236" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="T236" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U236" t="n">
         <v>15</v>
@@ -28658,22 +28666,22 @@
         <v>34</v>
       </c>
       <c r="Z236" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA236" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB236" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC236" t="n">
         <v>51</v>
       </c>
       <c r="AD236" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE236" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF236" t="n">
         <v>10</v>
@@ -28723,7 +28731,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H237" t="n">
         <v>3.5</v>
@@ -28845,7 +28853,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="H238" t="n">
         <v>3.25</v>
@@ -28973,7 +28981,7 @@
         <v>3.5</v>
       </c>
       <c r="I239" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="J239" t="n">
         <v>1.05</v>
@@ -29098,13 +29106,13 @@
         <v>2.7</v>
       </c>
       <c r="J240" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K240" t="n">
         <v>9</v>
       </c>
       <c r="L240" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M240" t="n">
         <v>3</v>
@@ -29220,16 +29228,16 @@
         <v>5.25</v>
       </c>
       <c r="J241" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K241" t="n">
         <v>8</v>
       </c>
       <c r="L241" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M241" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N241" t="n">
         <v>2.35</v>
@@ -29331,10 +29339,10 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H242" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I242" t="n">
         <v>1.18</v>
@@ -29343,10 +29351,10 @@
         <v>1.01</v>
       </c>
       <c r="K242" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L242" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="M242" t="n">
         <v>6.5</v>
@@ -29370,16 +29378,16 @@
         <v>1.8</v>
       </c>
       <c r="T242" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U242" t="n">
         <v>51</v>
       </c>
       <c r="V242" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W242" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="X242" t="n">
         <v>67</v>
@@ -29391,7 +29399,7 @@
         <v>23</v>
       </c>
       <c r="AA242" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB242" t="n">
         <v>29</v>
@@ -29406,7 +29414,7 @@
         <v>10</v>
       </c>
       <c r="AF242" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG242" t="n">
         <v>10</v>
@@ -29462,22 +29470,22 @@
         <v>3.1</v>
       </c>
       <c r="J243" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K243" t="n">
         <v>11</v>
       </c>
       <c r="L243" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M243" t="n">
         <v>3.5</v>
       </c>
       <c r="N243" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="O243" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="P243" t="n">
         <v>1.4</v>
@@ -29584,22 +29592,22 @@
         <v>1.8</v>
       </c>
       <c r="J244" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K244" t="n">
         <v>13</v>
       </c>
       <c r="L244" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M244" t="n">
         <v>3.75</v>
       </c>
       <c r="N244" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="O244" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="P244" t="n">
         <v>1.36</v>
@@ -29933,13 +29941,13 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="H247" t="n">
         <v>4.1</v>
       </c>
       <c r="I247" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J247" t="n">
         <v>1.05</v>
@@ -29948,16 +29956,16 @@
         <v>11</v>
       </c>
       <c r="L247" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M247" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N247" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O247" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P247" t="n">
         <v>1.36</v>
@@ -29993,7 +30001,7 @@
         <v>10</v>
       </c>
       <c r="AA247" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB247" t="n">
         <v>19</v>
@@ -30002,25 +30010,25 @@
         <v>67</v>
       </c>
       <c r="AD247" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AE247" t="n">
         <v>13</v>
       </c>
       <c r="AF247" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG247" t="n">
         <v>17</v>
       </c>
       <c r="AH247" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI247" t="n">
         <v>41</v>
       </c>
       <c r="AJ247" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="248">
@@ -30055,7 +30063,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H248" t="n">
         <v>5.5</v>
@@ -30076,10 +30084,10 @@
         <v>4.33</v>
       </c>
       <c r="N248" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O248" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P248" t="n">
         <v>1.3</v>
@@ -30127,13 +30135,13 @@
         <v>1250</v>
       </c>
       <c r="AE248" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF248" t="n">
         <v>41</v>
       </c>
       <c r="AG248" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH248" t="n">
         <v>101</v>
@@ -30177,7 +30185,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="H249" t="n">
         <v>3.4</v>
@@ -30186,10 +30194,10 @@
         <v>5.25</v>
       </c>
       <c r="J249" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K249" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L249" t="n">
         <v>1.4</v>
@@ -30299,90 +30307,90 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.67</v>
+        <v>3.45</v>
       </c>
       <c r="H250" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I250" t="n">
-        <v>2.5</v>
+        <v>1.98</v>
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M250" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N250" t="n">
+        <v>2</v>
+      </c>
+      <c r="O250" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P250" t="n">
         <v>1.4</v>
       </c>
-      <c r="M250" t="n">
+      <c r="Q250" t="n">
         <v>2.52</v>
       </c>
-      <c r="N250" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O250" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P250" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q250" t="n">
-        <v>2.32</v>
-      </c>
       <c r="R250" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S250" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T250" t="n">
-        <v>7.2</v>
+        <v>9.25</v>
       </c>
       <c r="U250" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="V250" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="W250" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="X250" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Y250" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z250" t="n">
-        <v>7.8</v>
+        <v>8.75</v>
       </c>
       <c r="AA250" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AB250" t="n">
         <v>16.5</v>
       </c>
       <c r="AC250" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD250" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE250" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AF250" t="n">
-        <v>11.25</v>
+        <v>8.75</v>
       </c>
       <c r="AG250" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AH250" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AI250" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AJ250" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="251">
@@ -30417,90 +30425,90 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.57</v>
+        <v>3.65</v>
       </c>
       <c r="H251" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I251" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="M251" t="n">
-        <v>2.62</v>
+        <v>2.45</v>
       </c>
       <c r="N251" t="n">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="O251" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="P251" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q251" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="R251" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="S251" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="T251" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="U251" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="V251" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="W251" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="X251" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="Y251" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="Z251" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AA251" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AB251" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AC251" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AD251" t="n">
         <v>800</v>
       </c>
       <c r="AE251" t="n">
-        <v>7.5</v>
+        <v>5.7</v>
       </c>
       <c r="AF251" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG251" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH251" t="n">
-        <v>28</v>
+        <v>16.5</v>
       </c>
       <c r="AI251" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AJ251" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="252">
@@ -30535,13 +30543,13 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="H252" t="n">
-        <v>4.45</v>
+        <v>5</v>
       </c>
       <c r="I252" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
@@ -30549,7 +30557,7 @@
         <v>1.23</v>
       </c>
       <c r="M252" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="N252" t="n">
         <v>1.7</v>
@@ -30560,61 +30568,61 @@
       <c r="P252" t="inlineStr"/>
       <c r="Q252" t="inlineStr"/>
       <c r="R252" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="S252" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="T252" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="U252" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="V252" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="W252" t="n">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="X252" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y252" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB252" t="n">
         <v>30</v>
       </c>
-      <c r="Z252" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA252" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB252" t="n">
-        <v>22</v>
-      </c>
       <c r="AC252" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AD252" t="n">
         <v>101</v>
       </c>
       <c r="AE252" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AF252" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AG252" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AH252" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="AI252" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="AJ252" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="253">
@@ -30649,90 +30657,90 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2.47</v>
+        <v>2.15</v>
       </c>
       <c r="H253" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I253" t="n">
-        <v>2.72</v>
+        <v>3.35</v>
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="M253" t="n">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="N253" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="O253" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="P253" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="Q253" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="R253" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S253" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="T253" t="n">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="U253" t="n">
-        <v>12.5</v>
+        <v>9.75</v>
       </c>
       <c r="V253" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="W253" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="X253" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y253" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z253" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AA253" t="n">
         <v>6.1</v>
       </c>
       <c r="AB253" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC253" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AD253" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="AE253" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF253" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AG253" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AH253" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI253" t="n">
         <v>32</v>
       </c>
-      <c r="AI253" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ253" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="254">
@@ -31319,13 +31327,13 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H262" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I262" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J262" t="n">
         <v>1.03</v>
@@ -31352,13 +31360,13 @@
         <v>3.25</v>
       </c>
       <c r="R262" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S262" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T262" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U262" t="n">
         <v>10</v>
@@ -31376,13 +31384,13 @@
         <v>23</v>
       </c>
       <c r="Z262" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA262" t="n">
         <v>6.5</v>
       </c>
       <c r="AB262" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC262" t="n">
         <v>41</v>
@@ -31706,10 +31714,10 @@
         <v>3.75</v>
       </c>
       <c r="N265" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O265" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="P265" t="n">
         <v>1.36</v>
@@ -31828,10 +31836,10 @@
         <v>3.75</v>
       </c>
       <c r="N266" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="O266" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="P266" t="n">
         <v>1.36</v>
@@ -31932,7 +31940,7 @@
         <v>2.8</v>
       </c>
       <c r="H267" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I267" t="n">
         <v>2.42</v>
@@ -31941,7 +31949,7 @@
         <v>1.08</v>
       </c>
       <c r="K267" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="L267" t="n">
         <v>1.37</v>
@@ -31956,22 +31964,22 @@
         <v>1.65</v>
       </c>
       <c r="P267" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q267" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R267" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S267" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T267" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U267" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V267" t="n">
         <v>10.25</v>
@@ -31986,16 +31994,16 @@
         <v>35</v>
       </c>
       <c r="Z267" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AA267" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB267" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC267" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD267" t="n">
         <v>600</v>
@@ -32004,7 +32012,7 @@
         <v>7.2</v>
       </c>
       <c r="AF267" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AG267" t="n">
         <v>9.5</v>
@@ -32072,7 +32080,7 @@
         <v>3.7</v>
       </c>
       <c r="N268" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O268" t="n">
         <v>2.02</v>
@@ -32084,10 +32092,10 @@
         <v>3</v>
       </c>
       <c r="R268" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S268" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T268" t="n">
         <v>7.8</v>
@@ -32102,7 +32110,7 @@
         <v>13</v>
       </c>
       <c r="X268" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y268" t="n">
         <v>24</v>
@@ -32173,13 +32181,13 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="H269" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="I269" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="J269" t="n">
         <v>1.03</v>
@@ -32188,16 +32196,16 @@
         <v>9.5</v>
       </c>
       <c r="L269" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="M269" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="N269" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="O269" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="P269" t="n">
         <v>1.21</v>
@@ -32206,46 +32214,46 @@
         <v>3.9</v>
       </c>
       <c r="R269" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S269" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="T269" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U269" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="V269" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W269" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="X269" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Y269" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z269" t="n">
         <v>10.25</v>
       </c>
       <c r="AA269" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AB269" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC269" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD269" t="n">
         <v>175</v>
       </c>
       <c r="AE269" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF269" t="n">
         <v>10</v>
@@ -32254,10 +32262,10 @@
         <v>8.5</v>
       </c>
       <c r="AH269" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI269" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AJ269" t="n">
         <v>16.5</v>
@@ -32295,13 +32303,13 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H270" t="n">
         <v>5.75</v>
       </c>
       <c r="I270" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="J270" t="n">
         <v>1.01</v>
@@ -32310,28 +32318,28 @@
         <v>34</v>
       </c>
       <c r="L270" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="M270" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N270" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="O270" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="P270" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Q270" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="R270" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="S270" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T270" t="n">
         <v>41</v>
@@ -32349,37 +32357,37 @@
         <v>41</v>
       </c>
       <c r="Y270" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z270" t="n">
         <v>34</v>
       </c>
       <c r="AA270" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB270" t="n">
         <v>15</v>
       </c>
-      <c r="AB270" t="n">
-        <v>17</v>
-      </c>
       <c r="AC270" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD270" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AE270" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF270" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG270" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH270" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI270" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ270" t="n">
         <v>15</v>
@@ -33295,7 +33303,7 @@
         <v>2.05</v>
       </c>
       <c r="O278" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P278" t="n">
         <v>1.4</v>
@@ -33402,16 +33410,16 @@
         <v>3.1</v>
       </c>
       <c r="J279" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K279" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L279" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M279" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N279" t="n">
         <v>2.1</v>
@@ -35622,10 +35630,10 @@
         <v>2.75</v>
       </c>
       <c r="R297" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S297" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T297" t="n">
         <v>8</v>
@@ -35717,25 +35725,25 @@
         <v>3.6</v>
       </c>
       <c r="I298" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J298" t="n">
         <v>1.04</v>
       </c>
       <c r="K298" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L298" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M298" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N298" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O298" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P298" t="n">
         <v>1.33</v>
@@ -35744,7 +35752,7 @@
         <v>3.25</v>
       </c>
       <c r="R298" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S298" t="n">
         <v>2.05</v>
@@ -35839,7 +35847,7 @@
         <v>3.4</v>
       </c>
       <c r="I299" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="J299" t="n">
         <v>1.05</v>
@@ -35860,7 +35868,7 @@
         <v>1.93</v>
       </c>
       <c r="P299" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q299" t="n">
         <v>3</v>
@@ -35905,7 +35913,7 @@
         <v>201</v>
       </c>
       <c r="AE299" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF299" t="n">
         <v>15</v>
@@ -35917,7 +35925,7 @@
         <v>29</v>
       </c>
       <c r="AI299" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ299" t="n">
         <v>29</v>
@@ -35988,7 +35996,7 @@
         <v>3</v>
       </c>
       <c r="R300" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S300" t="n">
         <v>2.1</v>
@@ -36110,7 +36118,7 @@
         <v>3.5</v>
       </c>
       <c r="R301" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S301" t="n">
         <v>2.5</v>
@@ -36443,13 +36451,13 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H304" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I304" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J304" t="n">
         <v>1.04</v>
@@ -36491,13 +36499,13 @@
         <v>8.5</v>
       </c>
       <c r="W304" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X304" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y304" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z304" t="n">
         <v>13</v>
@@ -36565,10 +36573,10 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H305" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I305" t="n">
         <v>11</v>
@@ -36592,10 +36600,10 @@
         <v>3.5</v>
       </c>
       <c r="P305" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Q305" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R305" t="n">
         <v>1.8</v>
@@ -36622,10 +36630,10 @@
         <v>23</v>
       </c>
       <c r="Z305" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA305" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB305" t="n">
         <v>23</v>
@@ -36809,10 +36817,10 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H307" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I307" t="n">
         <v>1.17</v>
@@ -36820,79 +36828,79 @@
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M307" t="n">
         <v>4.4</v>
       </c>
       <c r="N307" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O307" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="P307" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="Q307" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="R307" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="S307" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="T307" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="U307" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="V307" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="W307" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="X307" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Y307" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC307" t="n">
         <v>250</v>
-      </c>
-      <c r="Z307" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA307" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB307" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC307" t="n">
-        <v>200</v>
       </c>
       <c r="AD307" t="n">
         <v>101</v>
       </c>
       <c r="AE307" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AF307" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AG307" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH307" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AI307" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AJ307" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="308">
@@ -36927,13 +36935,13 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="H308" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I308" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
@@ -36965,16 +36973,16 @@
         <v>24</v>
       </c>
       <c r="U308" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="V308" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W308" t="n">
         <v>350</v>
       </c>
       <c r="X308" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Y308" t="n">
         <v>120</v>
@@ -37001,7 +37009,7 @@
         <v>5.9</v>
       </c>
       <c r="AG308" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH308" t="n">
         <v>7.4</v>
@@ -37538,16 +37546,16 @@
         <v>2.3</v>
       </c>
       <c r="J313" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K313" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L313" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M313" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N313" t="n">
         <v>2.7</v>
@@ -38026,25 +38034,25 @@
         <v>3</v>
       </c>
       <c r="J317" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K317" t="n">
         <v>10</v>
       </c>
       <c r="L317" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M317" t="n">
         <v>3.25</v>
       </c>
       <c r="N317" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O317" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P317" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q317" t="n">
         <v>2.75</v>
@@ -38148,13 +38156,13 @@
         <v>2.8</v>
       </c>
       <c r="J318" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K318" t="n">
         <v>13</v>
       </c>
       <c r="L318" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M318" t="n">
         <v>3.75</v>
@@ -38166,7 +38174,7 @@
         <v>2.03</v>
       </c>
       <c r="P318" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q318" t="n">
         <v>3.25</v>
@@ -38270,13 +38278,13 @@
         <v>4.75</v>
       </c>
       <c r="J319" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K319" t="n">
         <v>15</v>
       </c>
       <c r="L319" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M319" t="n">
         <v>4.5</v>
@@ -38288,7 +38296,7 @@
         <v>2.2</v>
       </c>
       <c r="P319" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q319" t="n">
         <v>3.4</v>
@@ -38383,58 +38391,58 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H320" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I320" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="J320" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K320" t="n">
         <v>15</v>
       </c>
       <c r="L320" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M320" t="n">
         <v>5</v>
       </c>
       <c r="N320" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O320" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P320" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q320" t="n">
         <v>3.5</v>
       </c>
       <c r="R320" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S320" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T320" t="n">
         <v>11</v>
       </c>
       <c r="U320" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V320" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W320" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X320" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y320" t="n">
         <v>21</v>
@@ -38458,19 +38466,19 @@
         <v>13</v>
       </c>
       <c r="AF320" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG320" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH320" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI320" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ320" t="n">
         <v>23</v>
-      </c>
-      <c r="AJ320" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="321">
@@ -38892,10 +38900,10 @@
         <v>4.33</v>
       </c>
       <c r="N324" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O324" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P324" t="n">
         <v>1.3</v>
@@ -39008,10 +39016,10 @@
         <v>13</v>
       </c>
       <c r="L325" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M325" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N325" t="n">
         <v>1.7</v>
@@ -39237,13 +39245,13 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H327" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I327" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="J327" t="n">
         <v>1.02</v>
@@ -39279,16 +39287,16 @@
         <v>13</v>
       </c>
       <c r="U327" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V327" t="n">
         <v>9.5</v>
       </c>
       <c r="W327" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X327" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y327" t="n">
         <v>19</v>
@@ -39297,10 +39305,10 @@
         <v>19</v>
       </c>
       <c r="AA327" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB327" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC327" t="n">
         <v>26</v>
@@ -39321,10 +39329,10 @@
         <v>41</v>
       </c>
       <c r="AI327" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ327" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="328">
@@ -39359,13 +39367,13 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H328" t="n">
         <v>4.33</v>
       </c>
       <c r="I328" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J328" t="n">
         <v>1.04</v>
@@ -39392,16 +39400,16 @@
         <v>3.4</v>
       </c>
       <c r="R328" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S328" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T328" t="n">
         <v>7.5</v>
       </c>
       <c r="U328" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V328" t="n">
         <v>8.5</v>
@@ -39511,7 +39519,7 @@
         <v>1.38</v>
       </c>
       <c r="Q329" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="R329" t="n">
         <v>1.78</v>
@@ -39556,7 +39564,7 @@
         <v>12.5</v>
       </c>
       <c r="AF329" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG329" t="n">
         <v>14</v>
@@ -39603,49 +39611,49 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="H330" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="I330" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J330" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K330" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="L330" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="M330" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="N330" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="O330" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="P330" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="Q330" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="R330" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S330" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="T330" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="U330" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="V330" t="n">
         <v>8.25</v>
@@ -39654,34 +39662,34 @@
         <v>9.75</v>
       </c>
       <c r="X330" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y330" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z330" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AA330" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB330" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC330" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD330" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE330" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF330" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG330" t="n">
         <v>19.5</v>
-      </c>
-      <c r="AC330" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD330" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE330" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF330" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG330" t="n">
-        <v>19</v>
       </c>
       <c r="AH330" t="n">
         <v>120</v>
@@ -39690,7 +39698,7 @@
         <v>65</v>
       </c>
       <c r="AJ330" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="331">
@@ -39847,7 +39855,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H332" t="n">
         <v>3.1</v>
@@ -39871,13 +39879,13 @@
         <v>2.18</v>
       </c>
       <c r="O332" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P332" t="n">
         <v>1.5</v>
       </c>
       <c r="Q332" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R332" t="n">
         <v>1.93</v>
@@ -39898,7 +39906,7 @@
         <v>20</v>
       </c>
       <c r="X332" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y332" t="n">
         <v>35</v>
@@ -40091,37 +40099,37 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H334" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I334" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J334" t="n">
         <v>1.05</v>
       </c>
       <c r="K334" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="L334" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M334" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="N334" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O334" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="P334" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q334" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="R334" t="n">
         <v>1.65</v>
@@ -40130,28 +40138,28 @@
         <v>2.1</v>
       </c>
       <c r="T334" t="n">
+        <v>8</v>
+      </c>
+      <c r="U334" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V334" t="n">
         <v>8.25</v>
       </c>
-      <c r="U334" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V334" t="n">
-        <v>8</v>
-      </c>
       <c r="W334" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X334" t="n">
         <v>13.5</v>
       </c>
       <c r="Y334" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z334" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AA334" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AB334" t="n">
         <v>13.5</v>
@@ -40160,10 +40168,10 @@
         <v>55</v>
       </c>
       <c r="AD334" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AE334" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF334" t="n">
         <v>23</v>
@@ -40175,10 +40183,10 @@
         <v>60</v>
       </c>
       <c r="AI334" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ334" t="n">
         <v>35</v>
-      </c>
-      <c r="AJ334" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="335">
@@ -40457,10 +40465,10 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="H337" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I337" t="n">
         <v>2.47</v>
@@ -40496,31 +40504,31 @@
         <v>2</v>
       </c>
       <c r="T337" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U337" t="n">
         <v>13.5</v>
       </c>
       <c r="V337" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W337" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X337" t="n">
         <v>23</v>
       </c>
       <c r="Y337" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z337" t="n">
         <v>7</v>
       </c>
       <c r="AA337" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB337" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC337" t="n">
         <v>60</v>
@@ -40529,10 +40537,10 @@
         <v>450</v>
       </c>
       <c r="AE337" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF337" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG337" t="n">
         <v>9.5</v>
@@ -40541,10 +40549,10 @@
         <v>28</v>
       </c>
       <c r="AI337" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ337" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="338">
